--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -4677,28 +4677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>737.7942304481624</v>
+        <v>789.781400125046</v>
       </c>
       <c r="AB2" t="n">
-        <v>1009.482615283418</v>
+        <v>1080.613754347388</v>
       </c>
       <c r="AC2" t="n">
-        <v>913.1390112985164</v>
+        <v>977.4814942834021</v>
       </c>
       <c r="AD2" t="n">
-        <v>737794.2304481623</v>
+        <v>789781.400125046</v>
       </c>
       <c r="AE2" t="n">
-        <v>1009482.615283418</v>
+        <v>1080613.754347388</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.972211575445418e-06</v>
+        <v>3.334121521936584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.27361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>913139.0112985164</v>
+        <v>977481.4942834021</v>
       </c>
     </row>
     <row r="3">
@@ -4783,28 +4783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>268.6256034609509</v>
+        <v>299.8690560746933</v>
       </c>
       <c r="AB3" t="n">
-        <v>367.5454015805024</v>
+        <v>410.2940718104741</v>
       </c>
       <c r="AC3" t="n">
-        <v>332.4673843068695</v>
+        <v>371.1361814482281</v>
       </c>
       <c r="AD3" t="n">
-        <v>268625.6034609508</v>
+        <v>299869.0560746933</v>
       </c>
       <c r="AE3" t="n">
-        <v>367545.4015805024</v>
+        <v>410294.071810474</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.646818918779833e-06</v>
+        <v>6.165128323498093e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>332467.3843068695</v>
+        <v>371136.1814482281</v>
       </c>
     </row>
     <row r="4">
@@ -4889,28 +4889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.2433840932112</v>
+        <v>241.4014958523816</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.664273399688</v>
+        <v>330.2961765074401</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.2099988858499</v>
+        <v>298.7731729952635</v>
       </c>
       <c r="AD4" t="n">
-        <v>210243.3840932112</v>
+        <v>241401.4958523816</v>
       </c>
       <c r="AE4" t="n">
-        <v>287664.273399688</v>
+        <v>330296.1765074401</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.244507418269431e-06</v>
+        <v>7.175550386918036e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.773611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>260209.9988858499</v>
+        <v>298773.1729952635</v>
       </c>
     </row>
     <row r="5">
@@ -4995,28 +4995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>191.9131433831638</v>
+        <v>212.6568604463046</v>
       </c>
       <c r="AB5" t="n">
-        <v>262.5840293870669</v>
+        <v>290.9664982210508</v>
       </c>
       <c r="AC5" t="n">
-        <v>237.5233781614418</v>
+        <v>263.1970640049645</v>
       </c>
       <c r="AD5" t="n">
-        <v>191913.1433831638</v>
+        <v>212656.8604463046</v>
       </c>
       <c r="AE5" t="n">
-        <v>262584.0293870669</v>
+        <v>290966.4982210508</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.549259987328199e-06</v>
+        <v>7.690749725576628e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.454166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>237523.3781614418</v>
+        <v>263197.0640049645</v>
       </c>
     </row>
     <row r="6">
@@ -5101,28 +5101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>180.7759509272304</v>
+        <v>201.5196679903711</v>
       </c>
       <c r="AB6" t="n">
-        <v>247.3456313306122</v>
+        <v>275.7281001645961</v>
       </c>
       <c r="AC6" t="n">
-        <v>223.7393114282642</v>
+        <v>249.412997271787</v>
       </c>
       <c r="AD6" t="n">
-        <v>180775.9509272304</v>
+        <v>201519.6679903711</v>
       </c>
       <c r="AE6" t="n">
-        <v>247345.6313306121</v>
+        <v>275728.1001645961</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.753206416980739e-06</v>
+        <v>8.035531283951312e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.2625</v>
       </c>
       <c r="AH6" t="n">
-        <v>223739.3114282642</v>
+        <v>249412.997271787</v>
       </c>
     </row>
     <row r="7">
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>178.176241743511</v>
+        <v>198.9199588066519</v>
       </c>
       <c r="AB7" t="n">
-        <v>243.7885945343745</v>
+        <v>272.1710633683584</v>
       </c>
       <c r="AC7" t="n">
-        <v>220.5217532315259</v>
+        <v>246.1954390750487</v>
       </c>
       <c r="AD7" t="n">
-        <v>178176.2417435111</v>
+        <v>198919.9588066519</v>
       </c>
       <c r="AE7" t="n">
-        <v>243788.5945343745</v>
+        <v>272171.0633683584</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.809226037142811e-06</v>
+        <v>8.130235231316032e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.212499999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>220521.7532315259</v>
+        <v>246195.4390750487</v>
       </c>
     </row>
     <row r="8">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>170.4640353295706</v>
+        <v>191.2077523927114</v>
       </c>
       <c r="AB8" t="n">
-        <v>233.2364134802923</v>
+        <v>261.6188823142763</v>
       </c>
       <c r="AC8" t="n">
-        <v>210.9766575271629</v>
+        <v>236.6503433706856</v>
       </c>
       <c r="AD8" t="n">
-        <v>170464.0353295706</v>
+        <v>191207.7523927114</v>
       </c>
       <c r="AE8" t="n">
-        <v>233236.4134802923</v>
+        <v>261618.8823142763</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.950879816250547e-06</v>
+        <v>8.369707973220051e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.093055555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>210976.6575271629</v>
+        <v>236650.3433706856</v>
       </c>
     </row>
     <row r="9">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>166.4498144339248</v>
+        <v>187.1935314970656</v>
       </c>
       <c r="AB9" t="n">
-        <v>227.7439793559453</v>
+        <v>256.1264481899292</v>
       </c>
       <c r="AC9" t="n">
-        <v>206.0084136069621</v>
+        <v>231.6820994504849</v>
       </c>
       <c r="AD9" t="n">
-        <v>166449.8144339249</v>
+        <v>187193.5314970656</v>
       </c>
       <c r="AE9" t="n">
-        <v>227743.9793559453</v>
+        <v>256126.4481899293</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.024697336568277e-06</v>
+        <v>8.494500153862103e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.031944444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>206008.4136069621</v>
+        <v>231682.0994504848</v>
       </c>
     </row>
     <row r="10">
@@ -5525,28 +5525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>152.0213867677732</v>
+        <v>183.094157672372</v>
       </c>
       <c r="AB10" t="n">
-        <v>208.0023680858225</v>
+        <v>250.517504071377</v>
       </c>
       <c r="AC10" t="n">
-        <v>188.1509140089281</v>
+        <v>226.6084650864028</v>
       </c>
       <c r="AD10" t="n">
-        <v>152021.3867677732</v>
+        <v>183094.157672372</v>
       </c>
       <c r="AE10" t="n">
-        <v>208002.3680858225</v>
+        <v>250517.504071377</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.093408901923317e-06</v>
+        <v>8.610660464301643e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.977777777777777</v>
       </c>
       <c r="AH10" t="n">
-        <v>188150.9140089281</v>
+        <v>226608.4650864028</v>
       </c>
     </row>
     <row r="11">
@@ -5631,28 +5631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>147.5736744857447</v>
+        <v>168.4026428949061</v>
       </c>
       <c r="AB11" t="n">
-        <v>201.9168119223367</v>
+        <v>230.4159254089698</v>
       </c>
       <c r="AC11" t="n">
-        <v>182.6461547845516</v>
+        <v>208.4253528787866</v>
       </c>
       <c r="AD11" t="n">
-        <v>147573.6744857447</v>
+        <v>168402.6428949061</v>
       </c>
       <c r="AE11" t="n">
-        <v>201916.8119223367</v>
+        <v>230415.9254089698</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.174374759188811e-06</v>
+        <v>8.747537263227213e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.915277777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>182646.1547845516</v>
+        <v>208425.3528787866</v>
       </c>
     </row>
     <row r="12">
@@ -5737,28 +5737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>147.2237819765895</v>
+        <v>168.0527503857509</v>
       </c>
       <c r="AB12" t="n">
-        <v>201.4380735551428</v>
+        <v>229.9371870417759</v>
       </c>
       <c r="AC12" t="n">
-        <v>182.2131065352091</v>
+        <v>207.992304629444</v>
       </c>
       <c r="AD12" t="n">
-        <v>147223.7819765895</v>
+        <v>168052.7503857509</v>
       </c>
       <c r="AE12" t="n">
-        <v>201438.0735551428</v>
+        <v>229937.1870417759</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.159494547583261e-06</v>
+        <v>8.722381527208461e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.927777777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>182213.1065352091</v>
+        <v>207992.304629444</v>
       </c>
     </row>
     <row r="13">
@@ -5843,28 +5843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>144.7588404328684</v>
+        <v>165.5878088420298</v>
       </c>
       <c r="AB13" t="n">
-        <v>198.0654317894792</v>
+        <v>226.5645452761124</v>
       </c>
       <c r="AC13" t="n">
-        <v>179.1623449661269</v>
+        <v>204.9415430603619</v>
       </c>
       <c r="AD13" t="n">
-        <v>144758.8404328684</v>
+        <v>165587.8088420298</v>
       </c>
       <c r="AE13" t="n">
-        <v>198065.4317894792</v>
+        <v>226564.5452761124</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.191880890489458e-06</v>
+        <v>8.777132246778689e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.902777777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>179162.3449661269</v>
+        <v>204941.5430603619</v>
       </c>
     </row>
     <row r="14">
@@ -5949,28 +5949,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>142.0172133149442</v>
+        <v>162.8461817241055</v>
       </c>
       <c r="AB14" t="n">
-        <v>194.3142166146851</v>
+        <v>222.8133301013183</v>
       </c>
       <c r="AC14" t="n">
-        <v>175.7691405027504</v>
+        <v>201.5483385969853</v>
       </c>
       <c r="AD14" t="n">
-        <v>142017.2133149442</v>
+        <v>162846.1817241056</v>
       </c>
       <c r="AE14" t="n">
-        <v>194314.2166146851</v>
+        <v>222813.3301013182</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.232436761335958e-06</v>
+        <v>8.84569395867294e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.872222222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>175769.1405027504</v>
+        <v>201548.3385969853</v>
       </c>
     </row>
     <row r="15">
@@ -6055,28 +6055,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>138.875428059797</v>
+        <v>159.7043964689584</v>
       </c>
       <c r="AB15" t="n">
-        <v>190.0154874228118</v>
+        <v>218.514600909445</v>
       </c>
       <c r="AC15" t="n">
-        <v>171.8806759916438</v>
+        <v>197.6598740858788</v>
       </c>
       <c r="AD15" t="n">
-        <v>138875.428059797</v>
+        <v>159704.3964689584</v>
       </c>
       <c r="AE15" t="n">
-        <v>190015.4874228118</v>
+        <v>218514.600909445</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.269345521494822e-06</v>
+        <v>8.908090048993966e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.845833333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>171880.6759916438</v>
+        <v>197659.8740858787</v>
       </c>
     </row>
     <row r="16">
@@ -6161,28 +6161,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>137.5870733543805</v>
+        <v>158.4160417635418</v>
       </c>
       <c r="AB16" t="n">
-        <v>188.2527036766635</v>
+        <v>216.7518171632967</v>
       </c>
       <c r="AC16" t="n">
-        <v>170.2861298521449</v>
+        <v>196.0653279463798</v>
       </c>
       <c r="AD16" t="n">
-        <v>137587.0733543805</v>
+        <v>158416.0417635418</v>
       </c>
       <c r="AE16" t="n">
-        <v>188252.7036766635</v>
+        <v>216751.8171632967</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.277369165007619e-06</v>
+        <v>8.92165441645506e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.838888888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>170286.1298521449</v>
+        <v>196065.3279463798</v>
       </c>
     </row>
     <row r="17">
@@ -6267,28 +6267,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>137.0534674827471</v>
+        <v>157.8824358919085</v>
       </c>
       <c r="AB17" t="n">
-        <v>187.5226005820655</v>
+        <v>216.0217140686987</v>
       </c>
       <c r="AC17" t="n">
-        <v>169.6257067721889</v>
+        <v>195.4049048664239</v>
       </c>
       <c r="AD17" t="n">
-        <v>137053.4674827471</v>
+        <v>157882.4358919085</v>
       </c>
       <c r="AE17" t="n">
-        <v>187522.6005820655</v>
+        <v>216021.7140686987</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.272846747754951e-06</v>
+        <v>8.914009045704261e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.843055555555556</v>
       </c>
       <c r="AH17" t="n">
-        <v>169625.7067721889</v>
+        <v>195404.9048664239</v>
       </c>
     </row>
     <row r="18">
@@ -6373,28 +6373,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>137.5841502229947</v>
+        <v>158.413118632156</v>
       </c>
       <c r="AB18" t="n">
-        <v>188.248704119342</v>
+        <v>216.7478176059752</v>
       </c>
       <c r="AC18" t="n">
-        <v>170.2825120069606</v>
+        <v>196.0617101011956</v>
       </c>
       <c r="AD18" t="n">
-        <v>137584.1502229946</v>
+        <v>158413.118632156</v>
       </c>
       <c r="AE18" t="n">
-        <v>188248.704119342</v>
+        <v>216747.8176059752</v>
       </c>
       <c r="AF18" t="n">
-        <v>5.270512596914865e-06</v>
+        <v>8.910063047897397e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.844444444444445</v>
       </c>
       <c r="AH18" t="n">
-        <v>170282.5120069606</v>
+        <v>196061.7101011956</v>
       </c>
     </row>
   </sheetData>
@@ -6670,28 +6670,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>461.4065628272919</v>
+        <v>501.6835828567118</v>
       </c>
       <c r="AB2" t="n">
-        <v>631.3168150812119</v>
+        <v>686.4256107821808</v>
       </c>
       <c r="AC2" t="n">
-        <v>571.0648243085751</v>
+        <v>620.9141138935241</v>
       </c>
       <c r="AD2" t="n">
-        <v>461406.5628272919</v>
+        <v>501683.5828567118</v>
       </c>
       <c r="AE2" t="n">
-        <v>631316.8150812119</v>
+        <v>686425.6107821808</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.589406419658684e-06</v>
+        <v>4.484310752283905e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.094444444444443</v>
       </c>
       <c r="AH2" t="n">
-        <v>571064.8243085751</v>
+        <v>620914.1138935242</v>
       </c>
     </row>
     <row r="3">
@@ -6776,28 +6776,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.4910603106274</v>
+        <v>240.6722855068984</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.6855960959172</v>
+        <v>329.2984387422604</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.8931462230054</v>
+        <v>297.8706579220585</v>
       </c>
       <c r="AD3" t="n">
-        <v>220491.0603106274</v>
+        <v>240672.2855068984</v>
       </c>
       <c r="AE3" t="n">
-        <v>301685.5960959172</v>
+        <v>329298.4387422604</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.120594060051329e-06</v>
+        <v>7.136007738685146e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.086111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>272893.1462230054</v>
+        <v>297870.6579220585</v>
       </c>
     </row>
     <row r="4">
@@ -6882,28 +6882,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>178.9444815547154</v>
+        <v>199.2109580970071</v>
       </c>
       <c r="AB4" t="n">
-        <v>244.8397341364123</v>
+        <v>272.5692214354049</v>
       </c>
       <c r="AC4" t="n">
-        <v>221.4725735452292</v>
+        <v>246.5555974949946</v>
       </c>
       <c r="AD4" t="n">
-        <v>178944.4815547154</v>
+        <v>199210.9580970071</v>
       </c>
       <c r="AE4" t="n">
-        <v>244839.7341364123</v>
+        <v>272569.2214354048</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.648194295692241e-06</v>
+        <v>8.049701082314038e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.509722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>221472.5735452292</v>
+        <v>246555.5974949946</v>
       </c>
     </row>
     <row r="5">
@@ -6988,28 +6988,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>165.0933208602711</v>
+        <v>185.1892052019705</v>
       </c>
       <c r="AB5" t="n">
-        <v>225.8879650042003</v>
+        <v>253.384040528346</v>
       </c>
       <c r="AC5" t="n">
-        <v>204.3295346600145</v>
+        <v>229.2014233271289</v>
       </c>
       <c r="AD5" t="n">
-        <v>165093.3208602711</v>
+        <v>185189.2052019705</v>
       </c>
       <c r="AE5" t="n">
-        <v>225887.9650042003</v>
+        <v>253384.040528346</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.932066161607731e-06</v>
+        <v>8.541307826983931e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>204329.5346600145</v>
+        <v>229201.4233271288</v>
       </c>
     </row>
     <row r="6">
@@ -7094,28 +7094,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>158.800846321633</v>
+        <v>178.8967306633324</v>
       </c>
       <c r="AB6" t="n">
-        <v>217.2783237360558</v>
+        <v>244.7743992602014</v>
       </c>
       <c r="AC6" t="n">
-        <v>196.5415854707915</v>
+        <v>221.4134741379059</v>
       </c>
       <c r="AD6" t="n">
-        <v>158800.846321633</v>
+        <v>178896.7306633324</v>
       </c>
       <c r="AE6" t="n">
-        <v>217278.3237360558</v>
+        <v>244774.3992602015</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.069399174889548e-06</v>
+        <v>8.779139904415938e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.134722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>196541.5854707915</v>
+        <v>221413.4741379059</v>
       </c>
     </row>
     <row r="7">
@@ -7200,28 +7200,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>152.4637820932525</v>
+        <v>172.5596664349519</v>
       </c>
       <c r="AB7" t="n">
-        <v>208.6076728872472</v>
+        <v>236.1037484113929</v>
       </c>
       <c r="AC7" t="n">
-        <v>188.6984493696556</v>
+        <v>213.57033803677</v>
       </c>
       <c r="AD7" t="n">
-        <v>152463.7820932525</v>
+        <v>172559.6664349519</v>
       </c>
       <c r="AE7" t="n">
-        <v>208607.6728872473</v>
+        <v>236103.7484113929</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.196469941025029e-06</v>
+        <v>8.999199914523353e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.033333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>188698.4493696556</v>
+        <v>213570.33803677</v>
       </c>
     </row>
     <row r="8">
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>137.6402745977506</v>
+        <v>167.7412964201874</v>
       </c>
       <c r="AB8" t="n">
-        <v>188.3254959649158</v>
+        <v>229.511041985713</v>
       </c>
       <c r="AC8" t="n">
-        <v>170.3519749465709</v>
+        <v>207.6068302594332</v>
       </c>
       <c r="AD8" t="n">
-        <v>137640.2745977506</v>
+        <v>167741.2964201874</v>
       </c>
       <c r="AE8" t="n">
-        <v>188325.4959649158</v>
+        <v>229511.0419857129</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.287924672946766e-06</v>
+        <v>9.157580396857195e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.963888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>170351.9749465709</v>
+        <v>207606.8302594332</v>
       </c>
     </row>
     <row r="9">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>133.6878805300891</v>
+        <v>153.8690162178091</v>
       </c>
       <c r="AB9" t="n">
-        <v>182.917656034224</v>
+        <v>210.5303762110189</v>
       </c>
       <c r="AC9" t="n">
-        <v>165.4602516689116</v>
+        <v>190.4376525867382</v>
       </c>
       <c r="AD9" t="n">
-        <v>133687.8805300891</v>
+        <v>153869.0162178091</v>
       </c>
       <c r="AE9" t="n">
-        <v>182917.656034224</v>
+        <v>210530.3762110189</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.353120125405827e-06</v>
+        <v>9.270485295154586e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.915277777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>165460.2516689116</v>
+        <v>190437.6525867381</v>
       </c>
     </row>
     <row r="10">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>130.4259591754328</v>
+        <v>150.6070948631528</v>
       </c>
       <c r="AB10" t="n">
-        <v>178.4545513309716</v>
+        <v>206.0672715077665</v>
       </c>
       <c r="AC10" t="n">
-        <v>161.4230994145294</v>
+        <v>186.400500332356</v>
       </c>
       <c r="AD10" t="n">
-        <v>130425.9591754328</v>
+        <v>150607.0948631528</v>
       </c>
       <c r="AE10" t="n">
-        <v>178454.5513309716</v>
+        <v>206067.2715077665</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.402771291746176e-06</v>
+        <v>9.35647073853385e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.879166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>161423.0994145294</v>
+        <v>186400.500332356</v>
       </c>
     </row>
     <row r="11">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>127.3703720084233</v>
+        <v>147.5515076961433</v>
       </c>
       <c r="AB11" t="n">
-        <v>174.2737621660795</v>
+        <v>201.8864823428744</v>
       </c>
       <c r="AC11" t="n">
-        <v>157.6413188997588</v>
+        <v>182.6187198175854</v>
       </c>
       <c r="AD11" t="n">
-        <v>127370.3720084233</v>
+        <v>147551.5076961433</v>
       </c>
       <c r="AE11" t="n">
-        <v>174273.7621660795</v>
+        <v>201886.4823428744</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.437180002766235e-06</v>
+        <v>9.416059434857471e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.855555555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>157641.3188997588</v>
+        <v>182618.7198175854</v>
       </c>
     </row>
     <row r="12">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>125.1862413383745</v>
+        <v>145.3673770260945</v>
       </c>
       <c r="AB12" t="n">
-        <v>171.2853382262755</v>
+        <v>198.8980584030704</v>
       </c>
       <c r="AC12" t="n">
-        <v>154.9381059464895</v>
+        <v>179.915506864316</v>
       </c>
       <c r="AD12" t="n">
-        <v>125186.2413383745</v>
+        <v>145367.3770260945</v>
       </c>
       <c r="AE12" t="n">
-        <v>171285.3382262755</v>
+        <v>198898.0584030704</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.469324982798133e-06</v>
+        <v>9.471727822212436e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.831944444444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>154938.1059464895</v>
+        <v>179915.506864316</v>
       </c>
     </row>
     <row r="13">
@@ -7836,28 +7836,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>125.5397552562344</v>
+        <v>145.7208909439544</v>
       </c>
       <c r="AB13" t="n">
-        <v>171.7690315646246</v>
+        <v>199.3817517414195</v>
       </c>
       <c r="AC13" t="n">
-        <v>155.3756362714945</v>
+        <v>180.3530371893211</v>
       </c>
       <c r="AD13" t="n">
-        <v>125539.7552562344</v>
+        <v>145720.8909439544</v>
       </c>
       <c r="AE13" t="n">
-        <v>171769.0315646245</v>
+        <v>199381.7517414195</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.467815828806025e-06</v>
+        <v>9.469114282899996e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>155375.6362714945</v>
+        <v>180353.0371893211</v>
       </c>
     </row>
   </sheetData>
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.5324045458406</v>
+        <v>188.7632252798222</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.3299592582299</v>
+        <v>258.274172473498</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.0612754273464</v>
+        <v>233.6248479427804</v>
       </c>
       <c r="AD2" t="n">
-        <v>170532.4045458406</v>
+        <v>188763.2252798222</v>
       </c>
       <c r="AE2" t="n">
-        <v>233329.9592582299</v>
+        <v>258274.172473498</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.502163319846354e-06</v>
+        <v>8.519061820411448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.194444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>211061.2754273464</v>
+        <v>233624.8479427804</v>
       </c>
     </row>
     <row r="3">
@@ -8239,28 +8239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.3383780697179</v>
+        <v>138.4838579491278</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.6522778294699</v>
+        <v>189.4797239225404</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.9380955243941</v>
+        <v>171.3960450078893</v>
       </c>
       <c r="AD3" t="n">
-        <v>120338.3780697179</v>
+        <v>138483.8579491278</v>
       </c>
       <c r="AE3" t="n">
-        <v>164652.2778294699</v>
+        <v>189479.7239225403</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.580089162761503e-06</v>
+        <v>1.055872947376674e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.191666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>148938.0955243941</v>
+        <v>171396.0450078893</v>
       </c>
     </row>
     <row r="4">
@@ -8345,28 +8345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.7080141978393</v>
+        <v>127.8834293268417</v>
       </c>
       <c r="AB4" t="n">
-        <v>137.7931479494463</v>
+        <v>174.9757498236307</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.6423633030859</v>
+        <v>158.2763098405194</v>
       </c>
       <c r="AD4" t="n">
-        <v>100708.0141978393</v>
+        <v>127883.4293268418</v>
       </c>
       <c r="AE4" t="n">
-        <v>137793.1479494463</v>
+        <v>174975.7498236306</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.878493254879241e-06</v>
+        <v>1.112337422954639e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.979166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>124642.3633030859</v>
+        <v>158276.3098405194</v>
       </c>
     </row>
     <row r="5">
@@ -8451,28 +8451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.90884822196409</v>
+        <v>116.1395794473946</v>
       </c>
       <c r="AB5" t="n">
-        <v>133.9632055707685</v>
+        <v>158.9072963164882</v>
       </c>
       <c r="AC5" t="n">
-        <v>121.17794524967</v>
+        <v>143.7414069838774</v>
       </c>
       <c r="AD5" t="n">
-        <v>97908.84822196409</v>
+        <v>116139.5794473946</v>
       </c>
       <c r="AE5" t="n">
-        <v>133963.2055707685</v>
+        <v>158907.2963164882</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.976501822380665e-06</v>
+        <v>1.130882752969524e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.913888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>121177.94524967</v>
+        <v>143741.4069838774</v>
       </c>
     </row>
   </sheetData>
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.1418765342031</v>
+        <v>271.9577179409526</v>
       </c>
       <c r="AB2" t="n">
-        <v>320.3632450845126</v>
+        <v>372.1045476145567</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.7882266063802</v>
+        <v>336.5914118422353</v>
       </c>
       <c r="AD2" t="n">
-        <v>234141.8765342031</v>
+        <v>271957.7179409526</v>
       </c>
       <c r="AE2" t="n">
-        <v>320363.2450845126</v>
+        <v>372104.5476145567</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.73210176817289e-06</v>
+        <v>6.799078903230291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.995833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>289788.2266063802</v>
+        <v>336591.4118422354</v>
       </c>
     </row>
     <row r="3">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.8123278579627</v>
+        <v>168.7203380698867</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.9798362286203</v>
+        <v>230.8506099631001</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.4168483500261</v>
+        <v>208.8185517491545</v>
       </c>
       <c r="AD3" t="n">
-        <v>149812.3278579627</v>
+        <v>168720.3380698867</v>
       </c>
       <c r="AE3" t="n">
-        <v>204979.8362286203</v>
+        <v>230850.6099631001</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.989346100333006e-06</v>
+        <v>9.089505034664685e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.484722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>185416.8483500261</v>
+        <v>208818.5517491545</v>
       </c>
     </row>
     <row r="4">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.0039842970145</v>
+        <v>151.9119945089385</v>
       </c>
       <c r="AB4" t="n">
-        <v>181.9819190367593</v>
+        <v>207.8526927712391</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.6138200971695</v>
+        <v>188.0155234962979</v>
       </c>
       <c r="AD4" t="n">
-        <v>133003.9842970145</v>
+        <v>151911.9945089385</v>
       </c>
       <c r="AE4" t="n">
-        <v>181981.9190367593</v>
+        <v>207852.6927712391</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.431089303662456e-06</v>
+        <v>9.894265215647912e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.119444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>164613.8200971695</v>
+        <v>188015.5234962979</v>
       </c>
     </row>
     <row r="5">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>116.136450309554</v>
+        <v>144.4556609373277</v>
       </c>
       <c r="AB5" t="n">
-        <v>158.9030148920468</v>
+        <v>197.6506082283453</v>
       </c>
       <c r="AC5" t="n">
-        <v>143.7375341725757</v>
+        <v>178.787111583459</v>
       </c>
       <c r="AD5" t="n">
-        <v>116136.450309554</v>
+        <v>144455.6609373277</v>
       </c>
       <c r="AE5" t="n">
-        <v>158903.0148920468</v>
+        <v>197650.6082283453</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.605563369747721e-06</v>
+        <v>1.021211907268833e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.991666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>143737.5341725757</v>
+        <v>178787.111583459</v>
       </c>
     </row>
     <row r="6">
@@ -9172,28 +9172,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>109.6513344079936</v>
+        <v>128.6445959659382</v>
       </c>
       <c r="AB6" t="n">
-        <v>150.0297932124149</v>
+        <v>176.017211599544</v>
       </c>
       <c r="AC6" t="n">
-        <v>135.7111603164002</v>
+        <v>159.2183759662407</v>
       </c>
       <c r="AD6" t="n">
-        <v>109651.3344079936</v>
+        <v>128644.5959659382</v>
       </c>
       <c r="AE6" t="n">
-        <v>150029.7932124149</v>
+        <v>176017.211599544</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.757483078259636e-06</v>
+        <v>1.048888378846776e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.886111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>135711.1603164002</v>
+        <v>159218.3759662407</v>
       </c>
     </row>
     <row r="7">
@@ -9278,28 +9278,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>107.7568940866574</v>
+        <v>126.7501556446021</v>
       </c>
       <c r="AB7" t="n">
-        <v>147.4377363879556</v>
+        <v>173.4251547750848</v>
       </c>
       <c r="AC7" t="n">
-        <v>133.3664857572919</v>
+        <v>156.8737014071324</v>
       </c>
       <c r="AD7" t="n">
-        <v>107756.8940866574</v>
+        <v>126750.1556446021</v>
       </c>
       <c r="AE7" t="n">
-        <v>147437.7363879556</v>
+        <v>173425.1547750848</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.796953204012998e-06</v>
+        <v>1.05607897856745e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.859722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>133366.4857572919</v>
+        <v>156873.7014071324</v>
       </c>
     </row>
   </sheetData>
@@ -9575,28 +9575,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.0891533573109</v>
+        <v>151.4117624039408</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.1524981673649</v>
+        <v>207.1682531364987</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.8179439563591</v>
+        <v>187.3964058196798</v>
       </c>
       <c r="AD2" t="n">
-        <v>125089.1533573109</v>
+        <v>151411.7624039408</v>
       </c>
       <c r="AE2" t="n">
-        <v>171152.4981673649</v>
+        <v>207168.2531364987</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.162264418043643e-06</v>
+        <v>1.011637497535581e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.705555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>154817.9439563591</v>
+        <v>187396.4058196798</v>
       </c>
     </row>
     <row r="3">
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.73901258578518</v>
+        <v>117.259061173899</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.4673171945006</v>
+        <v>160.439020602739</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.4430679745766</v>
+        <v>145.1269456540374</v>
       </c>
       <c r="AD3" t="n">
-        <v>99739.01258578518</v>
+        <v>117259.061173899</v>
       </c>
       <c r="AE3" t="n">
-        <v>136467.3171945006</v>
+        <v>160439.020602739</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.052840729761973e-06</v>
+        <v>1.186161760221961e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.012499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>123443.0679745766</v>
+        <v>145126.9456540374</v>
       </c>
     </row>
     <row r="4">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.64304746818004</v>
+        <v>117.1630960562939</v>
       </c>
       <c r="AB4" t="n">
-        <v>136.3360134869111</v>
+        <v>160.3077168951495</v>
       </c>
       <c r="AC4" t="n">
-        <v>123.3242957085535</v>
+        <v>145.0081733880143</v>
       </c>
       <c r="AD4" t="n">
-        <v>99643.04746818004</v>
+        <v>117163.0960562939</v>
       </c>
       <c r="AE4" t="n">
-        <v>136336.0134869111</v>
+        <v>160307.7168951495</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.070330445231697e-06</v>
+        <v>1.189589180934576e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.001388888888888</v>
       </c>
       <c r="AH4" t="n">
-        <v>123324.2957085535</v>
+        <v>145008.1733880143</v>
       </c>
     </row>
   </sheetData>
@@ -10084,28 +10084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>511.5700795690785</v>
+        <v>552.3582463837145</v>
       </c>
       <c r="AB2" t="n">
-        <v>699.9527517454931</v>
+        <v>755.7609210281994</v>
       </c>
       <c r="AC2" t="n">
-        <v>633.1502435087597</v>
+        <v>683.6321594423819</v>
       </c>
       <c r="AD2" t="n">
-        <v>511570.0795690785</v>
+        <v>552358.2463837145</v>
       </c>
       <c r="AE2" t="n">
-        <v>699952.751745493</v>
+        <v>755760.9210281994</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.426457173214434e-06</v>
+        <v>4.174673966807777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.56111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>633150.2435087597</v>
+        <v>683632.1594423818</v>
       </c>
     </row>
     <row r="3">
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.4134584864033</v>
+        <v>251.7649609749862</v>
       </c>
       <c r="AB3" t="n">
-        <v>316.6301031422056</v>
+        <v>344.4759266919939</v>
       </c>
       <c r="AC3" t="n">
-        <v>286.4113704915483</v>
+        <v>311.5996277236124</v>
       </c>
       <c r="AD3" t="n">
-        <v>231413.4584864033</v>
+        <v>251764.9609749862</v>
       </c>
       <c r="AE3" t="n">
-        <v>316630.1031422056</v>
+        <v>344475.926691994</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.000573405221455e-06</v>
+        <v>6.882911362064918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.191666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>286411.3704915483</v>
+        <v>311599.6277236124</v>
       </c>
     </row>
     <row r="4">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>185.9605888115114</v>
+        <v>206.3973426461149</v>
       </c>
       <c r="AB4" t="n">
-        <v>254.4394816139625</v>
+        <v>282.4019498164</v>
       </c>
       <c r="AC4" t="n">
-        <v>230.1561345968553</v>
+        <v>255.4499040796317</v>
       </c>
       <c r="AD4" t="n">
-        <v>185960.5888115114</v>
+        <v>206397.3426461149</v>
       </c>
       <c r="AE4" t="n">
-        <v>254439.4816139625</v>
+        <v>282401.9498164</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.55319663346525e-06</v>
+        <v>7.833689240969919e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.5625</v>
       </c>
       <c r="AH4" t="n">
-        <v>230156.1345968553</v>
+        <v>255449.9040796317</v>
       </c>
     </row>
     <row r="5">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>171.3702298274959</v>
+        <v>191.6363914615072</v>
       </c>
       <c r="AB5" t="n">
-        <v>234.4763087708328</v>
+        <v>262.2053651984235</v>
       </c>
       <c r="AC5" t="n">
-        <v>212.0982189513785</v>
+        <v>237.1808531515038</v>
       </c>
       <c r="AD5" t="n">
-        <v>171370.2298274959</v>
+        <v>191636.3914615072</v>
       </c>
       <c r="AE5" t="n">
-        <v>234476.3087708328</v>
+        <v>262205.3651984235</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.837958372728088e-06</v>
+        <v>8.32361646192665e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.293055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>212098.2189513785</v>
+        <v>237180.8531515038</v>
       </c>
     </row>
     <row r="6">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>160.35767596149</v>
+        <v>180.6238375955013</v>
       </c>
       <c r="AB6" t="n">
-        <v>219.4084467317833</v>
+        <v>247.137503159374</v>
       </c>
       <c r="AC6" t="n">
-        <v>198.4684125174539</v>
+        <v>223.5510467175793</v>
       </c>
       <c r="AD6" t="n">
-        <v>160357.67596149</v>
+        <v>180623.8375955013</v>
       </c>
       <c r="AE6" t="n">
-        <v>219408.4467317833</v>
+        <v>247137.503159374</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.069327285879144e-06</v>
+        <v>8.721682328953994e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.097222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>198468.4125174539</v>
+        <v>223551.0467175793</v>
       </c>
     </row>
     <row r="7">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>158.4768264994705</v>
+        <v>178.7429881334818</v>
       </c>
       <c r="AB7" t="n">
-        <v>216.8349855206275</v>
+        <v>244.5640419482182</v>
       </c>
       <c r="AC7" t="n">
-        <v>196.1405588324145</v>
+        <v>221.2231930325399</v>
       </c>
       <c r="AD7" t="n">
-        <v>158476.8264994705</v>
+        <v>178742.9881334818</v>
       </c>
       <c r="AE7" t="n">
-        <v>216834.9855206275</v>
+        <v>244564.0419482182</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.099538352754718e-06</v>
+        <v>8.773659901765579e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.07361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>196140.5588324145</v>
+        <v>221223.1930325399</v>
       </c>
     </row>
     <row r="8">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>142.7544219746182</v>
+        <v>173.1108597355228</v>
       </c>
       <c r="AB8" t="n">
-        <v>195.3228980262013</v>
+        <v>236.8579154021659</v>
       </c>
       <c r="AC8" t="n">
-        <v>176.681554776045</v>
+        <v>214.2525283884238</v>
       </c>
       <c r="AD8" t="n">
-        <v>142754.4219746182</v>
+        <v>173110.8597355228</v>
       </c>
       <c r="AE8" t="n">
-        <v>195322.8980262013</v>
+        <v>236857.9154021659</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.210511677614501e-06</v>
+        <v>8.964587421697248e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.986111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>176681.554776045</v>
+        <v>214252.5283884238</v>
       </c>
     </row>
     <row r="9">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>139.4128094328404</v>
+        <v>159.7642224128723</v>
       </c>
       <c r="AB9" t="n">
-        <v>190.7507563250024</v>
+        <v>218.5964574052423</v>
       </c>
       <c r="AC9" t="n">
-        <v>172.5457718617659</v>
+        <v>197.7339183126035</v>
       </c>
       <c r="AD9" t="n">
-        <v>139412.8094328404</v>
+        <v>159764.2224128723</v>
       </c>
       <c r="AE9" t="n">
-        <v>190750.7563250024</v>
+        <v>218596.4574052423</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.269886893206595e-06</v>
+        <v>9.066741364302196e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.941666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>172545.7718617659</v>
+        <v>197733.9183126035</v>
       </c>
     </row>
     <row r="10">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>134.9982839377049</v>
+        <v>155.3496969177367</v>
       </c>
       <c r="AB10" t="n">
-        <v>184.7106077874412</v>
+        <v>212.5563088676811</v>
       </c>
       <c r="AC10" t="n">
-        <v>167.0820866232259</v>
+        <v>192.2702330740635</v>
       </c>
       <c r="AD10" t="n">
-        <v>134998.2839377049</v>
+        <v>155349.6969177367</v>
       </c>
       <c r="AE10" t="n">
-        <v>184710.6077874412</v>
+        <v>212556.3088676811</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.348704874609701e-06</v>
+        <v>9.20234622010272e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.883333333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>167082.0866232259</v>
+        <v>192270.2330740635</v>
       </c>
     </row>
     <row r="11">
@@ -11038,28 +11038,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>133.5146674860617</v>
+        <v>153.8660804660936</v>
       </c>
       <c r="AB11" t="n">
-        <v>182.6806583057656</v>
+        <v>210.5263593860055</v>
       </c>
       <c r="AC11" t="n">
-        <v>165.2458726710288</v>
+        <v>190.4340191218664</v>
       </c>
       <c r="AD11" t="n">
-        <v>133514.6674860617</v>
+        <v>153866.0804660936</v>
       </c>
       <c r="AE11" t="n">
-        <v>182680.6583057656</v>
+        <v>210526.3593860055</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.35558462251206e-06</v>
+        <v>9.214182697079616e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.879166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>165245.8726710288</v>
+        <v>190434.0191218664</v>
       </c>
     </row>
     <row r="12">
@@ -11144,28 +11144,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>129.5454155928066</v>
+        <v>149.8968285728385</v>
       </c>
       <c r="AB12" t="n">
-        <v>177.2497527543819</v>
+        <v>205.0954538346218</v>
       </c>
       <c r="AC12" t="n">
-        <v>160.3332851231437</v>
+        <v>185.5214315739812</v>
       </c>
       <c r="AD12" t="n">
-        <v>129545.4155928066</v>
+        <v>149896.8285728385</v>
       </c>
       <c r="AE12" t="n">
-        <v>177249.7527543819</v>
+        <v>205095.4538346218</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.407631410990772e-06</v>
+        <v>9.303728218557001e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.841666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>160333.2851231437</v>
+        <v>185521.4315739812</v>
       </c>
     </row>
     <row r="13">
@@ -11250,28 +11250,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>128.1196124566699</v>
+        <v>148.4710254367018</v>
       </c>
       <c r="AB13" t="n">
-        <v>175.2989060015257</v>
+        <v>203.1446070817656</v>
       </c>
       <c r="AC13" t="n">
-        <v>158.5686244463488</v>
+        <v>183.7567708971864</v>
       </c>
       <c r="AD13" t="n">
-        <v>128119.6124566699</v>
+        <v>148471.0254367018</v>
       </c>
       <c r="AE13" t="n">
-        <v>175298.9060015257</v>
+        <v>203144.6070817656</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.425429019694699e-06</v>
+        <v>9.334348669866797e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.829166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>158568.6244463488</v>
+        <v>183756.7708971864</v>
       </c>
     </row>
     <row r="14">
@@ -11356,28 +11356,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>127.7602458167683</v>
+        <v>148.1116587968002</v>
       </c>
       <c r="AB14" t="n">
-        <v>174.8072047106753</v>
+        <v>202.6529057909152</v>
       </c>
       <c r="AC14" t="n">
-        <v>158.1238504365899</v>
+        <v>183.3119968874275</v>
       </c>
       <c r="AD14" t="n">
-        <v>127760.2458167683</v>
+        <v>148111.6587968002</v>
       </c>
       <c r="AE14" t="n">
-        <v>174807.2047106753</v>
+        <v>202652.9057909152</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.439936314184455e-06</v>
+        <v>9.359308197405035e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.818055555555555</v>
       </c>
       <c r="AH14" t="n">
-        <v>158123.8504365899</v>
+        <v>183311.9968874275</v>
       </c>
     </row>
   </sheetData>
@@ -11653,28 +11653,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.8503576261077</v>
+        <v>124.0000572459294</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.1973732090662</v>
+        <v>169.6623488202442</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.2445010993345</v>
+        <v>153.4700123714893</v>
       </c>
       <c r="AD2" t="n">
-        <v>106850.3576261077</v>
+        <v>124000.0572459294</v>
       </c>
       <c r="AE2" t="n">
-        <v>146197.3732090662</v>
+        <v>169662.3488202442</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.595478034936657e-06</v>
+        <v>1.121703310480745e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.443055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>132244.5010993345</v>
+        <v>153470.0123714893</v>
       </c>
     </row>
     <row r="3">
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.80412524969788</v>
+        <v>111.9538248695196</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.7151866294054</v>
+        <v>153.1801622405834</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.3353512739372</v>
+        <v>138.560862546092</v>
       </c>
       <c r="AD3" t="n">
-        <v>94804.12524969787</v>
+        <v>111953.8248695196</v>
       </c>
       <c r="AE3" t="n">
-        <v>129715.1866294054</v>
+        <v>153180.1622405834</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.098609272739964e-06</v>
+        <v>1.222564036146454e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.076388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>117335.3512739372</v>
+        <v>138560.862546092</v>
       </c>
     </row>
   </sheetData>
@@ -12056,28 +12056,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>326.025899983689</v>
+        <v>365.1975661063772</v>
       </c>
       <c r="AB2" t="n">
-        <v>446.083019605273</v>
+        <v>499.6794213262787</v>
       </c>
       <c r="AC2" t="n">
-        <v>403.5094822955951</v>
+        <v>451.9907186593704</v>
       </c>
       <c r="AD2" t="n">
-        <v>326025.899983689</v>
+        <v>365197.5661063772</v>
       </c>
       <c r="AE2" t="n">
-        <v>446083.019605273</v>
+        <v>499679.4213262787</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.116634057179059e-06</v>
+        <v>5.519790502678936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.929166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>403509.4822955951</v>
+        <v>451990.7186593704</v>
       </c>
     </row>
     <row r="3">
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.2772357268415</v>
+        <v>208.6346501052143</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.2950230747929</v>
+        <v>285.4631325849772</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.8844103463329</v>
+        <v>258.2189318611738</v>
       </c>
       <c r="AD3" t="n">
-        <v>179277.2357268415</v>
+        <v>208634.6501052143</v>
       </c>
       <c r="AE3" t="n">
-        <v>245295.0230747929</v>
+        <v>285463.1325849772</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.519150480834772e-06</v>
+        <v>8.003751305620667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.779166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>221884.4103463329</v>
+        <v>258218.9318611738</v>
       </c>
     </row>
     <row r="4">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.6169069752882</v>
+        <v>175.1601591178973</v>
       </c>
       <c r="AB4" t="n">
-        <v>212.9219174568987</v>
+        <v>239.6618572258373</v>
       </c>
       <c r="AC4" t="n">
-        <v>192.6009484926611</v>
+        <v>216.788865939802</v>
       </c>
       <c r="AD4" t="n">
-        <v>155616.9069752882</v>
+        <v>175160.1591178973</v>
       </c>
       <c r="AE4" t="n">
-        <v>212921.9174568987</v>
+        <v>239661.8572258373</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.017494731147029e-06</v>
+        <v>8.886356003339983e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.304166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>192600.9484926611</v>
+        <v>216788.865939802</v>
       </c>
     </row>
     <row r="5">
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>143.8187706604637</v>
+        <v>163.3620228030728</v>
       </c>
       <c r="AB5" t="n">
-        <v>196.7791868539244</v>
+        <v>223.5191266228632</v>
       </c>
       <c r="AC5" t="n">
-        <v>177.998857441965</v>
+        <v>202.1867748891059</v>
       </c>
       <c r="AD5" t="n">
-        <v>143818.7706604637</v>
+        <v>163362.0228030728</v>
       </c>
       <c r="AE5" t="n">
-        <v>196779.1868539244</v>
+        <v>223519.1266228632</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.299241932883632e-06</v>
+        <v>9.385351233376614e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.074999999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>177998.857441965</v>
+        <v>202186.7748891059</v>
       </c>
     </row>
     <row r="6">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.1907740803408</v>
+        <v>158.462847604142</v>
       </c>
       <c r="AB6" t="n">
-        <v>176.7645165913471</v>
+        <v>216.8158589793338</v>
       </c>
       <c r="AC6" t="n">
-        <v>159.8943592184755</v>
+        <v>196.1232577013776</v>
       </c>
       <c r="AD6" t="n">
-        <v>129190.7740803408</v>
+        <v>158462.847604142</v>
       </c>
       <c r="AE6" t="n">
-        <v>176764.5165913471</v>
+        <v>216815.8589793338</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.399999210325861e-06</v>
+        <v>9.563799858687728e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.998611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>159894.3592184755</v>
+        <v>196123.2577013776</v>
       </c>
     </row>
     <row r="7">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>124.1054085023967</v>
+        <v>143.7339119910263</v>
       </c>
       <c r="AB7" t="n">
-        <v>169.806495057112</v>
+        <v>196.6630794787</v>
       </c>
       <c r="AC7" t="n">
-        <v>153.6004014938211</v>
+        <v>177.8938311916742</v>
       </c>
       <c r="AD7" t="n">
-        <v>124105.4085023967</v>
+        <v>143733.9119910263</v>
       </c>
       <c r="AE7" t="n">
-        <v>169806.495057112</v>
+        <v>196663.0794787</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.507598031298116e-06</v>
+        <v>9.75436536596441e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.920833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>153600.4014938211</v>
+        <v>177893.8311916742</v>
       </c>
     </row>
     <row r="8">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>119.492484574889</v>
+        <v>139.1209880635187</v>
       </c>
       <c r="AB8" t="n">
-        <v>163.4948890316584</v>
+        <v>190.3514734532464</v>
       </c>
       <c r="AC8" t="n">
-        <v>147.8911662890401</v>
+        <v>172.1845959868932</v>
       </c>
       <c r="AD8" t="n">
-        <v>119492.4845748891</v>
+        <v>139120.9880635187</v>
       </c>
       <c r="AE8" t="n">
-        <v>163494.8890316584</v>
+        <v>190351.4734532464</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.588763615904356e-06</v>
+        <v>9.898115647465028e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.863888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>147891.1662890401</v>
+        <v>172184.5959868932</v>
       </c>
     </row>
     <row r="9">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>116.9018431251733</v>
+        <v>136.5303466138029</v>
       </c>
       <c r="AB9" t="n">
-        <v>159.9502591091246</v>
+        <v>186.8068435307125</v>
       </c>
       <c r="AC9" t="n">
-        <v>144.6848308713924</v>
+        <v>168.9782605692455</v>
       </c>
       <c r="AD9" t="n">
-        <v>116901.8431251733</v>
+        <v>136530.3466138029</v>
       </c>
       <c r="AE9" t="n">
-        <v>159950.2591091246</v>
+        <v>186806.8435307125</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.613330976762184e-06</v>
+        <v>9.941626269068665e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.847222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>144684.8308713924</v>
+        <v>168978.2605692455</v>
       </c>
     </row>
     <row r="10">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>116.5393847816732</v>
+        <v>136.1678882703028</v>
       </c>
       <c r="AB10" t="n">
-        <v>159.4543276130144</v>
+        <v>186.3109120346024</v>
       </c>
       <c r="AC10" t="n">
-        <v>144.2362303812266</v>
+        <v>168.5296600790797</v>
       </c>
       <c r="AD10" t="n">
-        <v>116539.3847816732</v>
+        <v>136167.8882703028</v>
       </c>
       <c r="AE10" t="n">
-        <v>159454.3276130144</v>
+        <v>186310.9120346024</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.638675785748423e-06</v>
+        <v>9.986513809077478e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.830555555555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>144236.2303812266</v>
+        <v>168529.6600790797</v>
       </c>
     </row>
   </sheetData>
@@ -13201,28 +13201,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>407.3693381571813</v>
+        <v>447.3781049324839</v>
       </c>
       <c r="AB2" t="n">
-        <v>557.3807003334653</v>
+        <v>612.1224600976524</v>
       </c>
       <c r="AC2" t="n">
-        <v>504.1850685823647</v>
+        <v>553.7023516252003</v>
       </c>
       <c r="AD2" t="n">
-        <v>407369.3381571813</v>
+        <v>447378.1049324839</v>
       </c>
       <c r="AE2" t="n">
-        <v>557380.7003334652</v>
+        <v>612122.4600976524</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.759951858685878e-06</v>
+        <v>4.813115044747804e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>504185.0685823647</v>
+        <v>553702.3516252004</v>
       </c>
     </row>
     <row r="3">
@@ -13307,28 +13307,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.8751576383875</v>
+        <v>229.7963918652923</v>
       </c>
       <c r="AB3" t="n">
-        <v>273.4780085503368</v>
+        <v>314.4175612512584</v>
       </c>
       <c r="AC3" t="n">
-        <v>247.3776512431684</v>
+        <v>284.4099904933503</v>
       </c>
       <c r="AD3" t="n">
-        <v>199875.1576383875</v>
+        <v>229796.3918652923</v>
       </c>
       <c r="AE3" t="n">
-        <v>273478.0085503368</v>
+        <v>314417.5612512584</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.244439102615841e-06</v>
+        <v>7.40193117391664e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.984722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>247377.6512431684</v>
+        <v>284409.9904933503</v>
       </c>
     </row>
     <row r="4">
@@ -13413,28 +13413,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>170.9606720482691</v>
+        <v>190.8798040898995</v>
       </c>
       <c r="AB4" t="n">
-        <v>233.9159337488809</v>
+        <v>261.1701689783112</v>
       </c>
       <c r="AC4" t="n">
-        <v>211.5913253350302</v>
+        <v>236.2444546057318</v>
       </c>
       <c r="AD4" t="n">
-        <v>170960.6720482691</v>
+        <v>190879.8040898995</v>
       </c>
       <c r="AE4" t="n">
-        <v>233915.9337488809</v>
+        <v>261170.1689783112</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.767909768681455e-06</v>
+        <v>8.314818306493005e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>211591.3253350302</v>
+        <v>236244.4546057318</v>
       </c>
     </row>
     <row r="5">
@@ -13519,28 +13519,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>158.2904315655564</v>
+        <v>178.2095636071868</v>
       </c>
       <c r="AB5" t="n">
-        <v>216.5799517488823</v>
+        <v>243.8341869783125</v>
       </c>
       <c r="AC5" t="n">
-        <v>195.9098651259024</v>
+        <v>220.562994396604</v>
       </c>
       <c r="AD5" t="n">
-        <v>158290.4315655564</v>
+        <v>178209.5636071868</v>
       </c>
       <c r="AE5" t="n">
-        <v>216579.9517488823</v>
+        <v>243834.1869783126</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.043356498671744e-06</v>
+        <v>8.795173351806764e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.195833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>195909.8651259024</v>
+        <v>220562.994396604</v>
       </c>
     </row>
     <row r="6">
@@ -13625,28 +13625,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>152.3954843979512</v>
+        <v>172.3146164395816</v>
       </c>
       <c r="AB6" t="n">
-        <v>208.5142249674544</v>
+        <v>235.7684601968847</v>
       </c>
       <c r="AC6" t="n">
-        <v>188.6139199881728</v>
+        <v>213.2670492588743</v>
       </c>
       <c r="AD6" t="n">
-        <v>152395.4843979512</v>
+        <v>172314.6164395816</v>
       </c>
       <c r="AE6" t="n">
-        <v>208514.2249674544</v>
+        <v>235768.4601968847</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.169501350680571e-06</v>
+        <v>9.015158958842047e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.093055555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>188613.9199881728</v>
+        <v>213267.0492588743</v>
       </c>
     </row>
     <row r="7">
@@ -13731,28 +13731,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>136.2414886334321</v>
+        <v>166.0773820057654</v>
       </c>
       <c r="AB7" t="n">
-        <v>186.4116152984547</v>
+        <v>227.2344008771787</v>
       </c>
       <c r="AC7" t="n">
-        <v>168.6207523647679</v>
+        <v>205.5474685830109</v>
       </c>
       <c r="AD7" t="n">
-        <v>136241.4886334321</v>
+        <v>166077.3820057654</v>
       </c>
       <c r="AE7" t="n">
-        <v>186411.6152984547</v>
+        <v>227234.4008771787</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.297779086660561e-06</v>
+        <v>9.238864129281308e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.994444444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>168620.7523647679</v>
+        <v>205547.4685830109</v>
       </c>
     </row>
     <row r="8">
@@ -13837,28 +13837,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>131.3785060496063</v>
+        <v>151.3828894372573</v>
       </c>
       <c r="AB8" t="n">
-        <v>179.7578679876173</v>
+        <v>207.1287478696969</v>
       </c>
       <c r="AC8" t="n">
-        <v>162.6020293586817</v>
+        <v>187.3606708800955</v>
       </c>
       <c r="AD8" t="n">
-        <v>131378.5060496063</v>
+        <v>151382.8894372573</v>
       </c>
       <c r="AE8" t="n">
-        <v>179757.8679876173</v>
+        <v>207128.7478696969</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.392540074522265e-06</v>
+        <v>9.404119017658054e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.923611111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>162602.0293586817</v>
+        <v>187360.6708800955</v>
       </c>
     </row>
     <row r="9">
@@ -13943,28 +13943,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>126.5986150620501</v>
+        <v>146.6029984497011</v>
       </c>
       <c r="AB9" t="n">
-        <v>173.2178102645386</v>
+        <v>200.5886901466181</v>
       </c>
       <c r="AC9" t="n">
-        <v>156.6861455656629</v>
+        <v>181.4447870870766</v>
       </c>
       <c r="AD9" t="n">
-        <v>126598.6150620501</v>
+        <v>146602.9984497011</v>
       </c>
       <c r="AE9" t="n">
-        <v>173217.8102645386</v>
+        <v>200588.6901466181</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.488062806659384e-06</v>
+        <v>9.570702321536221e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.855555555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>156686.1455656629</v>
+        <v>181444.7870870766</v>
       </c>
     </row>
     <row r="10">
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>124.9986734300864</v>
+        <v>145.0030568177375</v>
       </c>
       <c r="AB10" t="n">
-        <v>171.0286995392438</v>
+        <v>198.3995794213234</v>
       </c>
       <c r="AC10" t="n">
-        <v>154.7059604955533</v>
+        <v>179.4646020169671</v>
       </c>
       <c r="AD10" t="n">
-        <v>124998.6734300864</v>
+        <v>145003.0568177375</v>
       </c>
       <c r="AE10" t="n">
-        <v>171028.6995392438</v>
+        <v>198399.5794213234</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.485168178412804e-06</v>
+        <v>9.565654342630821e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.856944444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>154705.9604955533</v>
+        <v>179464.6020169671</v>
       </c>
     </row>
     <row r="11">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>122.3864967744327</v>
+        <v>142.3908801620837</v>
       </c>
       <c r="AB11" t="n">
-        <v>167.4546041978794</v>
+        <v>194.825484079959</v>
       </c>
       <c r="AC11" t="n">
-        <v>151.4729717972933</v>
+        <v>176.2316133187071</v>
       </c>
       <c r="AD11" t="n">
-        <v>122386.4967744327</v>
+        <v>142390.8801620837</v>
       </c>
       <c r="AE11" t="n">
-        <v>167454.6041978794</v>
+        <v>194825.484079959</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.519446670806507e-06</v>
+        <v>9.625433040194757e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>151472.9717972933</v>
+        <v>176231.6133187071</v>
       </c>
     </row>
     <row r="12">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>122.9018302841655</v>
+        <v>142.9062136718165</v>
       </c>
       <c r="AB12" t="n">
-        <v>168.1597062408054</v>
+        <v>195.5305861228849</v>
       </c>
       <c r="AC12" t="n">
-        <v>152.1107798908596</v>
+        <v>176.8694214122734</v>
       </c>
       <c r="AD12" t="n">
-        <v>122901.8302841655</v>
+        <v>142906.2136718165</v>
       </c>
       <c r="AE12" t="n">
-        <v>168159.7062408054</v>
+        <v>195530.5861228849</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.513962112023514e-06</v>
+        <v>9.615868448584529e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.8375</v>
       </c>
       <c r="AH12" t="n">
-        <v>152110.7798908596</v>
+        <v>176869.4214122734</v>
       </c>
     </row>
   </sheetData>
@@ -14558,28 +14558,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>646.846458621814</v>
+        <v>698.5335852410608</v>
       </c>
       <c r="AB2" t="n">
-        <v>885.0438615380912</v>
+        <v>955.7644684536372</v>
       </c>
       <c r="AC2" t="n">
-        <v>800.5765175597563</v>
+        <v>864.5476490082781</v>
       </c>
       <c r="AD2" t="n">
-        <v>646846.458621814</v>
+        <v>698533.5852410608</v>
       </c>
       <c r="AE2" t="n">
-        <v>885043.8615380912</v>
+        <v>955764.4684536372</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.119881923192461e-06</v>
+        <v>3.603658771329906e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.634722222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>800576.5175597563</v>
+        <v>864547.649008278</v>
       </c>
     </row>
     <row r="3">
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>255.3408253654835</v>
+        <v>286.1825091364426</v>
       </c>
       <c r="AB3" t="n">
-        <v>349.368582107073</v>
+        <v>391.5675344817232</v>
       </c>
       <c r="AC3" t="n">
-        <v>316.0253349727629</v>
+        <v>354.196878559273</v>
       </c>
       <c r="AD3" t="n">
-        <v>255340.8253654835</v>
+        <v>286182.5091364426</v>
       </c>
       <c r="AE3" t="n">
-        <v>349368.582107073</v>
+        <v>391567.5344817232</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.764790302273403e-06</v>
+        <v>6.399893997196744e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.425000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>316025.3349727629</v>
+        <v>354196.878559273</v>
       </c>
     </row>
     <row r="4">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.9521062652202</v>
+        <v>233.8790413821962</v>
       </c>
       <c r="AB4" t="n">
-        <v>277.68802540696</v>
+        <v>320.0036224340683</v>
       </c>
       <c r="AC4" t="n">
-        <v>251.1858699997927</v>
+        <v>289.4629258369607</v>
       </c>
       <c r="AD4" t="n">
-        <v>202952.1062652202</v>
+        <v>233879.0413821962</v>
       </c>
       <c r="AE4" t="n">
-        <v>277688.02540696</v>
+        <v>320003.6224340684</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.330199985588817e-06</v>
+        <v>7.36105298552662e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.716666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>251185.8699997927</v>
+        <v>289462.9258369607</v>
       </c>
     </row>
     <row r="5">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>184.487151288661</v>
+        <v>205.0767505903389</v>
       </c>
       <c r="AB5" t="n">
-        <v>252.4234593917238</v>
+        <v>280.5950575052784</v>
       </c>
       <c r="AC5" t="n">
-        <v>228.3325187060014</v>
+        <v>253.8154590346937</v>
       </c>
       <c r="AD5" t="n">
-        <v>184487.151288661</v>
+        <v>205076.7505903389</v>
       </c>
       <c r="AE5" t="n">
-        <v>252423.4593917238</v>
+        <v>280595.0575052784</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.651211517104435e-06</v>
+        <v>7.906751313621319e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.391666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>228332.5187060014</v>
+        <v>253815.4590346937</v>
       </c>
     </row>
     <row r="6">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>174.520294742637</v>
+        <v>195.1098940443149</v>
       </c>
       <c r="AB6" t="n">
-        <v>238.7863665587827</v>
+        <v>266.9579646723374</v>
       </c>
       <c r="AC6" t="n">
-        <v>215.9969308732519</v>
+        <v>241.4798712019441</v>
       </c>
       <c r="AD6" t="n">
-        <v>174520.294742637</v>
+        <v>195109.8940443149</v>
       </c>
       <c r="AE6" t="n">
-        <v>238786.3665587827</v>
+        <v>266957.9646723373</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.842230289179005e-06</v>
+        <v>8.231470566115601e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.218055555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>215996.9308732519</v>
+        <v>241479.8712019441</v>
       </c>
     </row>
     <row r="7">
@@ -15088,28 +15088,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>170.2973761944942</v>
+        <v>190.8869754961721</v>
       </c>
       <c r="AB7" t="n">
-        <v>233.0083830991988</v>
+        <v>261.1799812127534</v>
       </c>
       <c r="AC7" t="n">
-        <v>210.7703900455981</v>
+        <v>236.2533303742904</v>
       </c>
       <c r="AD7" t="n">
-        <v>170297.3761944942</v>
+        <v>190886.9754961721</v>
       </c>
       <c r="AE7" t="n">
-        <v>233008.3830991988</v>
+        <v>261179.9812127534</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.92781375749879e-06</v>
+        <v>8.376956790096871e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.144444444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>210770.3900455981</v>
+        <v>236253.3303742904</v>
       </c>
     </row>
     <row r="8">
@@ -15194,28 +15194,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>164.2190439845304</v>
+        <v>184.8086432862082</v>
       </c>
       <c r="AB8" t="n">
-        <v>224.6917408124389</v>
+        <v>252.8633389259936</v>
       </c>
       <c r="AC8" t="n">
-        <v>203.2474764262032</v>
+        <v>228.7304167548955</v>
       </c>
       <c r="AD8" t="n">
-        <v>164219.0439845304</v>
+        <v>184808.6432862082</v>
       </c>
       <c r="AE8" t="n">
-        <v>224691.7408124389</v>
+        <v>252863.3389259936</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.043983757451761e-06</v>
+        <v>8.574438090690006e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.048611111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>203247.4764262032</v>
+        <v>228730.4167548955</v>
       </c>
     </row>
     <row r="9">
@@ -15300,28 +15300,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>160.8002030844765</v>
+        <v>181.3898023861544</v>
       </c>
       <c r="AB9" t="n">
-        <v>220.013931864372</v>
+        <v>248.1855299779267</v>
       </c>
       <c r="AC9" t="n">
-        <v>199.0161109987923</v>
+        <v>224.4990513274846</v>
       </c>
       <c r="AD9" t="n">
-        <v>160800.2030844766</v>
+        <v>181389.8023861544</v>
       </c>
       <c r="AE9" t="n">
-        <v>220013.931864372</v>
+        <v>248185.5299779267</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.103686314389618e-06</v>
+        <v>8.675928480615084e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.001388888888888</v>
       </c>
       <c r="AH9" t="n">
-        <v>199016.1109987923</v>
+        <v>224499.0513274845</v>
       </c>
     </row>
     <row r="10">
@@ -15406,28 +15406,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>146.8756649715691</v>
+        <v>167.5505156192676</v>
       </c>
       <c r="AB10" t="n">
-        <v>200.9617645110358</v>
+        <v>229.2500072772397</v>
       </c>
       <c r="AC10" t="n">
-        <v>181.7822557577675</v>
+        <v>207.370708337172</v>
       </c>
       <c r="AD10" t="n">
-        <v>146875.6649715691</v>
+        <v>167550.5156192676</v>
       </c>
       <c r="AE10" t="n">
-        <v>200961.7645110358</v>
+        <v>229250.0072772397</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.166771035883067e-06</v>
+        <v>8.783168326127053e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.952777777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>181782.2557577675</v>
+        <v>207370.708337172</v>
       </c>
     </row>
     <row r="11">
@@ -15512,28 +15512,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>145.6812567836616</v>
+        <v>166.35610743136</v>
       </c>
       <c r="AB11" t="n">
-        <v>199.3275225347711</v>
+        <v>227.615765300975</v>
       </c>
       <c r="AC11" t="n">
-        <v>180.3039835420441</v>
+        <v>205.8924361214485</v>
       </c>
       <c r="AD11" t="n">
-        <v>145681.2567836615</v>
+        <v>166356.10743136</v>
       </c>
       <c r="AE11" t="n">
-        <v>199327.5225347711</v>
+        <v>227615.765300975</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.170006149805809e-06</v>
+        <v>8.788667805384077e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.950000000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>180303.9835420441</v>
+        <v>205892.4361214485</v>
       </c>
     </row>
     <row r="12">
@@ -15618,28 +15618,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>141.8825192902183</v>
+        <v>162.5573699379167</v>
       </c>
       <c r="AB12" t="n">
-        <v>194.1299223077742</v>
+        <v>222.4181650739781</v>
       </c>
       <c r="AC12" t="n">
-        <v>175.6024349858323</v>
+        <v>201.1908875652368</v>
       </c>
       <c r="AD12" t="n">
-        <v>141882.5192902182</v>
+        <v>162557.3699379167</v>
       </c>
       <c r="AE12" t="n">
-        <v>194129.9223077742</v>
+        <v>222418.1650739781</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.232355618134998e-06</v>
+        <v>8.894657769246721e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.902777777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>175602.4349858323</v>
+        <v>201190.8875652368</v>
       </c>
     </row>
     <row r="13">
@@ -15724,28 +15724,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>139.016380340246</v>
+        <v>159.6912309879444</v>
       </c>
       <c r="AB13" t="n">
-        <v>190.2083445512977</v>
+        <v>218.4965873175016</v>
       </c>
       <c r="AC13" t="n">
-        <v>172.0551271064638</v>
+        <v>197.6435796858682</v>
       </c>
       <c r="AD13" t="n">
-        <v>139016.380340246</v>
+        <v>159691.2309879444</v>
       </c>
       <c r="AE13" t="n">
-        <v>190208.3445512977</v>
+        <v>218496.5873175016</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.26955942824652e-06</v>
+        <v>8.957901780702496e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.876388888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>172055.1271064638</v>
+        <v>197643.5796858682</v>
       </c>
     </row>
     <row r="14">
@@ -15830,28 +15830,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>135.8522889822243</v>
+        <v>156.5271396299227</v>
       </c>
       <c r="AB14" t="n">
-        <v>185.8790951653956</v>
+        <v>214.1673379315995</v>
       </c>
       <c r="AC14" t="n">
-        <v>168.139055205811</v>
+        <v>193.7275077852155</v>
       </c>
       <c r="AD14" t="n">
-        <v>135852.2889822242</v>
+        <v>156527.1396299227</v>
       </c>
       <c r="AE14" t="n">
-        <v>185879.0951653956</v>
+        <v>214167.3379315995</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.315145124430598e-06</v>
+        <v>9.035394442960562e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.843055555555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>168139.055205811</v>
+        <v>193727.5077852155</v>
       </c>
     </row>
     <row r="15">
@@ -15936,28 +15936,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>134.7873361247123</v>
+        <v>155.4621867724107</v>
       </c>
       <c r="AB15" t="n">
-        <v>184.4219796833442</v>
+        <v>212.710222449548</v>
       </c>
       <c r="AC15" t="n">
-        <v>166.8210047802918</v>
+        <v>192.4094573596962</v>
       </c>
       <c r="AD15" t="n">
-        <v>134787.3361247123</v>
+        <v>155462.1867724107</v>
       </c>
       <c r="AE15" t="n">
-        <v>184421.9796833442</v>
+        <v>212710.222449548</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.307351440889448e-06</v>
+        <v>9.022145697477733e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.848611111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>166821.0047802918</v>
+        <v>192409.4573596962</v>
       </c>
     </row>
     <row r="16">
@@ -16042,28 +16042,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>133.67703130609</v>
+        <v>154.3518819537884</v>
       </c>
       <c r="AB16" t="n">
-        <v>182.9028116473143</v>
+        <v>211.1910544135182</v>
       </c>
       <c r="AC16" t="n">
-        <v>165.4468240094544</v>
+        <v>191.0352765888589</v>
       </c>
       <c r="AD16" t="n">
-        <v>133677.0313060899</v>
+        <v>154351.8819537884</v>
       </c>
       <c r="AE16" t="n">
-        <v>182902.8116473143</v>
+        <v>211191.0544135182</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.334849909232747e-06</v>
+        <v>9.068891271162435e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.827777777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>165446.8240094544</v>
+        <v>191035.2765888589</v>
       </c>
     </row>
     <row r="17">
@@ -16148,28 +16148,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>134.1402405471045</v>
+        <v>154.8150911948029</v>
       </c>
       <c r="AB17" t="n">
-        <v>183.5365949662196</v>
+        <v>211.8248377324234</v>
       </c>
       <c r="AC17" t="n">
-        <v>166.020119937924</v>
+        <v>191.6085725173285</v>
       </c>
       <c r="AD17" t="n">
-        <v>134140.2405471045</v>
+        <v>154815.0911948029</v>
       </c>
       <c r="AE17" t="n">
-        <v>183536.5949662196</v>
+        <v>211824.8377324234</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.334849909232747e-06</v>
+        <v>9.068891271162435e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.827777777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>166020.119937924</v>
+        <v>191608.5725173285</v>
       </c>
     </row>
   </sheetData>
@@ -16445,28 +16445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.7365514160747</v>
+        <v>296.4757391535161</v>
       </c>
       <c r="AB2" t="n">
-        <v>366.3289613504949</v>
+        <v>405.6511858963423</v>
       </c>
       <c r="AC2" t="n">
-        <v>331.3670394251292</v>
+        <v>366.9364060494099</v>
       </c>
       <c r="AD2" t="n">
-        <v>267736.5514160747</v>
+        <v>296475.7391535161</v>
       </c>
       <c r="AE2" t="n">
-        <v>366328.9613504949</v>
+        <v>405651.1858963423</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.521534133980835e-06</v>
+        <v>6.350159379202309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.275</v>
       </c>
       <c r="AH2" t="n">
-        <v>331367.0394251292</v>
+        <v>366936.4060494099</v>
       </c>
     </row>
     <row r="3">
@@ -16551,28 +16551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.5600530275509</v>
+        <v>178.8616866044302</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.3171038449281</v>
+        <v>244.7264504327768</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.4812258640104</v>
+        <v>221.3701014792739</v>
       </c>
       <c r="AD3" t="n">
-        <v>159560.0530275509</v>
+        <v>178861.6866044303</v>
       </c>
       <c r="AE3" t="n">
-        <v>218317.1038449281</v>
+        <v>244726.4504327768</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.822064561578112e-06</v>
+        <v>8.695323497605762e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.581944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>197481.2258640104</v>
+        <v>221370.1014792739</v>
       </c>
     </row>
     <row r="4">
@@ -16657,28 +16657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>140.7415725054413</v>
+        <v>159.8726138817285</v>
       </c>
       <c r="AB4" t="n">
-        <v>192.5688285818235</v>
+        <v>218.7447633948253</v>
       </c>
       <c r="AC4" t="n">
-        <v>174.1903298540771</v>
+        <v>197.8680701866896</v>
       </c>
       <c r="AD4" t="n">
-        <v>140741.5725054413</v>
+        <v>159872.6138817285</v>
       </c>
       <c r="AE4" t="n">
-        <v>192568.8285818235</v>
+        <v>218744.7633948253</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.28309663242544e-06</v>
+        <v>9.526673419946215e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.181944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>174190.3298540771</v>
+        <v>197868.0701866896</v>
       </c>
     </row>
     <row r="5">
@@ -16763,28 +16763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>133.5975775653649</v>
+        <v>152.7286189416521</v>
       </c>
       <c r="AB5" t="n">
-        <v>182.7940995340027</v>
+        <v>208.9700343470045</v>
       </c>
       <c r="AC5" t="n">
-        <v>165.3484872276588</v>
+        <v>189.0262275602713</v>
       </c>
       <c r="AD5" t="n">
-        <v>133597.5775653649</v>
+        <v>152728.6189416521</v>
       </c>
       <c r="AE5" t="n">
-        <v>182794.0995340027</v>
+        <v>208970.0343470045</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.454909826530035e-06</v>
+        <v>9.836493266781167e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.050000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>165348.4872276588</v>
+        <v>189026.2275602713</v>
       </c>
     </row>
     <row r="6">
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>116.5785714123307</v>
+        <v>135.7948641346384</v>
       </c>
       <c r="AB6" t="n">
-        <v>159.5079444898721</v>
+        <v>185.8005239555231</v>
       </c>
       <c r="AC6" t="n">
-        <v>144.2847301386088</v>
+        <v>168.0679827219334</v>
       </c>
       <c r="AD6" t="n">
-        <v>116578.5714123307</v>
+        <v>135794.8641346384</v>
       </c>
       <c r="AE6" t="n">
-        <v>159507.9444898721</v>
+        <v>185800.5239555232</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.625609416598766e-06</v>
+        <v>1.014430502201626e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.927777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>144284.7301386087</v>
+        <v>168067.9827219335</v>
       </c>
     </row>
     <row r="7">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>111.4485876484523</v>
+        <v>130.66488037076</v>
       </c>
       <c r="AB7" t="n">
-        <v>152.4888743852264</v>
+        <v>178.7814538508773</v>
       </c>
       <c r="AC7" t="n">
-        <v>137.9355502334213</v>
+        <v>161.7188028167461</v>
       </c>
       <c r="AD7" t="n">
-        <v>111448.5876484523</v>
+        <v>130664.88037076</v>
       </c>
       <c r="AE7" t="n">
-        <v>152488.8743852263</v>
+        <v>178781.4538508774</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.731242713714923e-06</v>
+        <v>1.033478685377405e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.855555555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>137935.5502334213</v>
+        <v>161718.8028167461</v>
       </c>
     </row>
     <row r="8">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>110.2227363292539</v>
+        <v>129.4390290515616</v>
       </c>
       <c r="AB8" t="n">
-        <v>150.8116105295566</v>
+        <v>177.1041899952076</v>
       </c>
       <c r="AC8" t="n">
-        <v>136.4183620860815</v>
+        <v>160.2016146694063</v>
       </c>
       <c r="AD8" t="n">
-        <v>110222.7363292539</v>
+        <v>129439.0290515616</v>
       </c>
       <c r="AE8" t="n">
-        <v>150811.6105295566</v>
+        <v>177104.1899952076</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.759719159774852e-06</v>
+        <v>1.038613662468466e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.836111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>136418.3620860816</v>
+        <v>160201.6146694063</v>
       </c>
     </row>
   </sheetData>
@@ -17378,28 +17378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.7886970833677</v>
+        <v>217.3732663812038</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.6772682357313</v>
+        <v>297.4196928943215</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.8940342147238</v>
+        <v>269.0343748357359</v>
       </c>
       <c r="AD2" t="n">
-        <v>189788.6970833677</v>
+        <v>217373.2663812038</v>
       </c>
       <c r="AE2" t="n">
-        <v>259677.2682357313</v>
+        <v>297419.6928943215</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.229879968663858e-06</v>
+        <v>7.891603971112629e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.441666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>234894.0342147238</v>
+        <v>269034.3748357359</v>
       </c>
     </row>
     <row r="3">
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.5028539939769</v>
+        <v>148.9210436469086</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.5597622140636</v>
+        <v>203.7603418503724</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.5182691186036</v>
+        <v>184.3137408036668</v>
       </c>
       <c r="AD3" t="n">
-        <v>130502.8539939769</v>
+        <v>148921.0436469086</v>
       </c>
       <c r="AE3" t="n">
-        <v>178559.7622140636</v>
+        <v>203760.3418503724</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.360554641580351e-06</v>
+        <v>1.000108149882669e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.293055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>161518.2691186036</v>
+        <v>184313.7408036668</v>
       </c>
     </row>
     <row r="4">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>105.7769253636108</v>
+        <v>124.280366362563</v>
       </c>
       <c r="AB4" t="n">
-        <v>144.7286558310295</v>
+        <v>170.0458801199875</v>
       </c>
       <c r="AC4" t="n">
-        <v>130.9159560464994</v>
+        <v>153.8169399822749</v>
       </c>
       <c r="AD4" t="n">
-        <v>105776.9253636108</v>
+        <v>124280.366362563</v>
       </c>
       <c r="AE4" t="n">
-        <v>144728.6558310295</v>
+        <v>170045.8801199875</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.829694316067614e-06</v>
+        <v>1.087634617432992e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.948611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>130915.9560464994</v>
+        <v>153816.9399822749</v>
       </c>
     </row>
     <row r="5">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.0358968123315</v>
+        <v>119.5393378112838</v>
       </c>
       <c r="AB5" t="n">
-        <v>138.2417714077545</v>
+        <v>163.5589956967126</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.0481707681803</v>
+        <v>147.9491547039557</v>
       </c>
       <c r="AD5" t="n">
-        <v>101035.8968123315</v>
+        <v>119539.3378112838</v>
       </c>
       <c r="AE5" t="n">
-        <v>138241.7714077545</v>
+        <v>163558.9956967126</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.920340519509695e-06</v>
+        <v>1.10454630155522e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.8875</v>
       </c>
       <c r="AH5" t="n">
-        <v>125048.1707681803</v>
+        <v>147949.1547039557</v>
       </c>
     </row>
     <row r="6">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.4437745154997</v>
+        <v>119.9472155144519</v>
       </c>
       <c r="AB6" t="n">
-        <v>138.7998476755232</v>
+        <v>164.1170719644813</v>
       </c>
       <c r="AC6" t="n">
-        <v>125.5529850202183</v>
+        <v>148.4539689559937</v>
       </c>
       <c r="AD6" t="n">
-        <v>101443.7745154997</v>
+        <v>119947.2155144519</v>
       </c>
       <c r="AE6" t="n">
-        <v>138799.8476755232</v>
+        <v>164117.0719644813</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.921997671309368e-06</v>
+        <v>1.104855473111385e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.886111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>125552.9850202183</v>
+        <v>148453.9689559937</v>
       </c>
     </row>
   </sheetData>
@@ -32920,28 +32920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.7493223663529</v>
+        <v>169.564449451259</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.3159205171939</v>
+        <v>232.0055603946591</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.6752431907043</v>
+        <v>209.8632753325089</v>
       </c>
       <c r="AD2" t="n">
-        <v>142749.3223663529</v>
+        <v>169564.449451259</v>
       </c>
       <c r="AE2" t="n">
-        <v>195315.9205171939</v>
+        <v>232005.5603946591</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.814291948659152e-06</v>
+        <v>9.258061948585796e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.945833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>176675.2431907043</v>
+        <v>209863.2753325089</v>
       </c>
     </row>
     <row r="3">
@@ -33026,28 +33026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.8096890476024</v>
+        <v>127.658082994567</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.2464610164413</v>
+        <v>174.6674210302339</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.9071496493055</v>
+        <v>157.9974075144222</v>
       </c>
       <c r="AD3" t="n">
-        <v>109809.6890476024</v>
+        <v>127658.082994567</v>
       </c>
       <c r="AE3" t="n">
-        <v>150246.4610164413</v>
+        <v>174667.4210302339</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.81986937961039e-06</v>
+        <v>1.119182463874405e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.091666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>135907.1496493055</v>
+        <v>157997.4075144222</v>
       </c>
     </row>
     <row r="4">
@@ -33132,28 +33132,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.82741609238845</v>
+        <v>111.7610613853736</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.3788100710084</v>
+        <v>152.9164147374503</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.1265166186569</v>
+        <v>138.3222867344858</v>
       </c>
       <c r="AD4" t="n">
-        <v>93827.41609238845</v>
+        <v>111761.0613853736</v>
       </c>
       <c r="AE4" t="n">
-        <v>128378.8100710084</v>
+        <v>152916.4147374502</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.055578375102711e-06</v>
+        <v>1.164510177801571e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.931944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>116126.5166186569</v>
+        <v>138322.2867344858</v>
       </c>
     </row>
     <row r="5">
@@ -33238,28 +33238,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.29690424234225</v>
+        <v>112.2305495353274</v>
       </c>
       <c r="AB5" t="n">
-        <v>129.0211844701302</v>
+        <v>153.5587891365721</v>
       </c>
       <c r="AC5" t="n">
-        <v>116.7075837067049</v>
+        <v>138.9033538225338</v>
       </c>
       <c r="AD5" t="n">
-        <v>94296.90424234225</v>
+        <v>112230.5495353274</v>
       </c>
       <c r="AE5" t="n">
-        <v>129021.1844701302</v>
+        <v>153558.7891365721</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.057806896514638e-06</v>
+        <v>1.164938730733246e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.930555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>116707.5837067049</v>
+        <v>138903.3538225338</v>
       </c>
     </row>
   </sheetData>
@@ -33535,28 +33535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.24676399487419</v>
+        <v>106.9656461490586</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.47960390397</v>
+        <v>146.3551160523382</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.6948838121201</v>
+        <v>132.3871891870383</v>
       </c>
       <c r="AD2" t="n">
-        <v>90246.76399487419</v>
+        <v>106965.6461490586</v>
       </c>
       <c r="AE2" t="n">
-        <v>123479.60390397</v>
+        <v>146355.1160523382</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.016506427572839e-06</v>
+        <v>1.240964207448631e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.247222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>111694.8838121201</v>
+        <v>132387.1891870383</v>
       </c>
     </row>
     <row r="3">
@@ -33641,28 +33641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.21656547782098</v>
+        <v>106.9354476320054</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.4382849606733</v>
+        <v>146.3137971090415</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.6575082907801</v>
+        <v>132.3498136656983</v>
       </c>
       <c r="AD3" t="n">
-        <v>90216.56547782097</v>
+        <v>106935.4476320054</v>
       </c>
       <c r="AE3" t="n">
-        <v>123438.2849606733</v>
+        <v>146313.7971090415</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.055880506334324e-06</v>
+        <v>1.249085502261904e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.219444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>111657.5082907801</v>
+        <v>132349.8136656983</v>
       </c>
     </row>
   </sheetData>
@@ -33938,28 +33938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>369.2112863934099</v>
+        <v>408.6815980735673</v>
       </c>
       <c r="AB2" t="n">
-        <v>505.1711704958389</v>
+        <v>559.1761922438861</v>
       </c>
       <c r="AC2" t="n">
-        <v>456.9583429959061</v>
+        <v>505.8092012648438</v>
       </c>
       <c r="AD2" t="n">
-        <v>369211.2863934099</v>
+        <v>408681.5980735673</v>
       </c>
       <c r="AE2" t="n">
-        <v>505171.1704958389</v>
+        <v>559176.1922438862</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.935988411250105e-06</v>
+        <v>5.158415820354049e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.279166666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>456958.3429959061</v>
+        <v>505809.2012648438</v>
       </c>
     </row>
     <row r="3">
@@ -34044,28 +34044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.3117391452704</v>
+        <v>218.9570762012605</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.0246733429277</v>
+        <v>299.5867313628798</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.3037220625665</v>
+        <v>270.9945941943133</v>
       </c>
       <c r="AD3" t="n">
-        <v>189311.7391452704</v>
+        <v>218957.0762012605</v>
       </c>
       <c r="AE3" t="n">
-        <v>259024.6733429277</v>
+        <v>299586.7313628798</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.381132961245441e-06</v>
+        <v>7.697477786957753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.877777777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>234303.7220625665</v>
+        <v>270994.5941943133</v>
       </c>
     </row>
     <row r="4">
@@ -34150,28 +34150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.4277237015351</v>
+        <v>183.162924295889</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.6090214906583</v>
+        <v>250.6115935994422</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.2680903168869</v>
+        <v>226.6935748419651</v>
       </c>
       <c r="AD4" t="n">
-        <v>163427.7237015351</v>
+        <v>183162.924295889</v>
       </c>
       <c r="AE4" t="n">
-        <v>223609.0214906583</v>
+        <v>250611.5935994422</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.887672128471234e-06</v>
+        <v>8.587447121930004e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.372222222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>202268.0903168869</v>
+        <v>226693.5748419651</v>
       </c>
     </row>
     <row r="5">
@@ -34256,28 +34256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>151.4284101643231</v>
+        <v>171.163610758677</v>
       </c>
       <c r="AB5" t="n">
-        <v>207.1910313367011</v>
+        <v>234.193603445485</v>
       </c>
       <c r="AC5" t="n">
-        <v>187.4170101004242</v>
+        <v>211.8424946255024</v>
       </c>
       <c r="AD5" t="n">
-        <v>151428.4101643231</v>
+        <v>171163.610758677</v>
       </c>
       <c r="AE5" t="n">
-        <v>207191.0313367011</v>
+        <v>234193.603445485</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.160483168413922e-06</v>
+        <v>9.066765357320588e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.141666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>187417.0101004242</v>
+        <v>211842.4946255024</v>
       </c>
     </row>
     <row r="6">
@@ -34362,28 +34362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>146.1120477865541</v>
+        <v>165.847248380908</v>
       </c>
       <c r="AB6" t="n">
-        <v>199.9169497900861</v>
+        <v>226.91952189887</v>
       </c>
       <c r="AC6" t="n">
-        <v>180.8371566873783</v>
+        <v>205.2626412124565</v>
       </c>
       <c r="AD6" t="n">
-        <v>146112.0477865541</v>
+        <v>165847.248380908</v>
       </c>
       <c r="AE6" t="n">
-        <v>199916.9497900861</v>
+        <v>226919.52189887</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.269730680178901e-06</v>
+        <v>9.258708925920314e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.055555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>180837.1566873783</v>
+        <v>205262.6412124565</v>
       </c>
     </row>
     <row r="7">
@@ -34468,28 +34468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>130.3116920943645</v>
+        <v>150.132144034739</v>
       </c>
       <c r="AB7" t="n">
-        <v>178.2982060695462</v>
+        <v>205.4174228309794</v>
       </c>
       <c r="AC7" t="n">
-        <v>161.2816755254224</v>
+        <v>185.8126723012128</v>
       </c>
       <c r="AD7" t="n">
-        <v>130311.6920943645</v>
+        <v>150132.144034739</v>
       </c>
       <c r="AE7" t="n">
-        <v>178298.2060695462</v>
+        <v>205417.4228309794</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.401443173236398e-06</v>
+        <v>9.49012258045745e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.956944444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>161281.6755254224</v>
+        <v>185812.6723012128</v>
       </c>
     </row>
     <row r="8">
@@ -34574,28 +34574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>125.8641526312382</v>
+        <v>145.6846045716127</v>
       </c>
       <c r="AB8" t="n">
-        <v>172.2128863645067</v>
+        <v>199.3321031259399</v>
       </c>
       <c r="AC8" t="n">
-        <v>155.7771301922302</v>
+        <v>180.3081269680205</v>
       </c>
       <c r="AD8" t="n">
-        <v>125864.1526312382</v>
+        <v>145684.6045716127</v>
       </c>
       <c r="AE8" t="n">
-        <v>172212.8863645067</v>
+        <v>199332.1031259398</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.479147389350926e-06</v>
+        <v>9.626645822912185e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="AH8" t="n">
-        <v>155777.1301922302</v>
+        <v>180308.1269680205</v>
       </c>
     </row>
     <row r="9">
@@ -34680,28 +34680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>122.5306439604876</v>
+        <v>142.3510959008621</v>
       </c>
       <c r="AB9" t="n">
-        <v>167.6518327371646</v>
+        <v>194.7710494985978</v>
       </c>
       <c r="AC9" t="n">
-        <v>151.6513771216012</v>
+        <v>176.1823738973916</v>
       </c>
       <c r="AD9" t="n">
-        <v>122530.6439604876</v>
+        <v>142351.0959008621</v>
       </c>
       <c r="AE9" t="n">
-        <v>167651.8327371646</v>
+        <v>194771.0494985978</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.51792256254075e-06</v>
+        <v>9.694772272612368e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.873611111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>151651.3771216012</v>
+        <v>176182.3738973916</v>
       </c>
     </row>
     <row r="10">
@@ -34786,28 +34786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>119.6533027512558</v>
+        <v>139.4737546916303</v>
       </c>
       <c r="AB10" t="n">
-        <v>163.7149275553605</v>
+        <v>190.8341443167936</v>
       </c>
       <c r="AC10" t="n">
-        <v>148.090204644866</v>
+        <v>172.6212014206565</v>
       </c>
       <c r="AD10" t="n">
-        <v>119653.3027512558</v>
+        <v>139473.7546916303</v>
       </c>
       <c r="AE10" t="n">
-        <v>163714.9275553605</v>
+        <v>190834.1443167937</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.574546624976683e-06</v>
+        <v>9.794258516618987e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>148090.2046448661</v>
+        <v>172621.2014206565</v>
       </c>
     </row>
     <row r="11">
@@ -34892,28 +34892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>119.937114221542</v>
+        <v>139.7575661619165</v>
       </c>
       <c r="AB11" t="n">
-        <v>164.1032509298843</v>
+        <v>191.2224676913175</v>
       </c>
       <c r="AC11" t="n">
-        <v>148.4414669815407</v>
+        <v>172.9724637573311</v>
       </c>
       <c r="AD11" t="n">
-        <v>119937.114221542</v>
+        <v>139757.5661619165</v>
       </c>
       <c r="AE11" t="n">
-        <v>164103.2509298843</v>
+        <v>191222.4676913175</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.570546011869796e-06</v>
+        <v>9.787229597205475e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.836111111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>148441.4669815407</v>
+        <v>172972.4637573311</v>
       </c>
     </row>
   </sheetData>
@@ -35189,28 +35189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>579.2809076145464</v>
+        <v>620.3126242127598</v>
       </c>
       <c r="AB2" t="n">
-        <v>792.5976938682103</v>
+        <v>848.7390987094652</v>
       </c>
       <c r="AC2" t="n">
-        <v>716.9532823832776</v>
+        <v>767.7366303414398</v>
       </c>
       <c r="AD2" t="n">
-        <v>579280.9076145465</v>
+        <v>620312.6242127598</v>
       </c>
       <c r="AE2" t="n">
-        <v>792597.6938682103</v>
+        <v>848739.0987094652</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.271109379879531e-06</v>
+        <v>3.883343941724211e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.068055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>716953.2823832777</v>
+        <v>767736.6303414397</v>
       </c>
     </row>
     <row r="3">
@@ -35295,28 +35295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.4767770394812</v>
+        <v>274.0799051561387</v>
       </c>
       <c r="AB3" t="n">
-        <v>333.1356677825726</v>
+        <v>375.0082177866666</v>
       </c>
       <c r="AC3" t="n">
-        <v>301.3416672083493</v>
+        <v>339.2179598084456</v>
       </c>
       <c r="AD3" t="n">
-        <v>243476.7770394812</v>
+        <v>274079.9051561387</v>
       </c>
       <c r="AE3" t="n">
-        <v>333135.6677825726</v>
+        <v>375008.2177866666</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.876617793102456e-06</v>
+        <v>6.628584406631814e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>301341.6672083493</v>
+        <v>339217.9598084457</v>
       </c>
     </row>
     <row r="4">
@@ -35401,28 +35401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.1181509491409</v>
+        <v>224.8065304118156</v>
       </c>
       <c r="AB4" t="n">
-        <v>265.6010180169035</v>
+        <v>307.5902126734641</v>
       </c>
       <c r="AC4" t="n">
-        <v>240.252429630818</v>
+        <v>278.2342344815745</v>
       </c>
       <c r="AD4" t="n">
-        <v>194118.1509491409</v>
+        <v>224806.5304118156</v>
       </c>
       <c r="AE4" t="n">
-        <v>265601.0180169035</v>
+        <v>307590.2126734641</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.442727058126943e-06</v>
+        <v>7.596568161251064e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.634722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>240252.429630818</v>
+        <v>278234.2344815745</v>
       </c>
     </row>
     <row r="5">
@@ -35507,28 +35507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>178.1674474620762</v>
+        <v>198.5980096608865</v>
       </c>
       <c r="AB5" t="n">
-        <v>243.7765618105391</v>
+        <v>271.7305583437285</v>
       </c>
       <c r="AC5" t="n">
-        <v>220.5108688939653</v>
+        <v>245.7969752317166</v>
       </c>
       <c r="AD5" t="n">
-        <v>178167.4474620762</v>
+        <v>198598.0096608865</v>
       </c>
       <c r="AE5" t="n">
-        <v>243776.561810539</v>
+        <v>271730.5583437285</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.73734704492727e-06</v>
+        <v>8.100335505522526e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.347222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>220510.8688939653</v>
+        <v>245796.9752317166</v>
       </c>
     </row>
     <row r="6">
@@ -35613,28 +35613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>166.376807931665</v>
+        <v>186.8073701304753</v>
       </c>
       <c r="AB6" t="n">
-        <v>227.644088638734</v>
+        <v>255.5980851719235</v>
       </c>
       <c r="AC6" t="n">
-        <v>205.9180563196039</v>
+        <v>231.2041626573553</v>
       </c>
       <c r="AD6" t="n">
-        <v>166376.807931665</v>
+        <v>186807.3701304753</v>
       </c>
       <c r="AE6" t="n">
-        <v>227644.088638734</v>
+        <v>255598.0851719235</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.973991986514248e-06</v>
+        <v>8.504971983357081e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.140277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>205918.0563196039</v>
+        <v>231204.1626573552</v>
       </c>
     </row>
     <row r="7">
@@ -35719,28 +35719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>163.9098362138484</v>
+        <v>184.3403984126587</v>
       </c>
       <c r="AB7" t="n">
-        <v>224.2686690993079</v>
+        <v>252.2226656324975</v>
       </c>
       <c r="AC7" t="n">
-        <v>202.8647820835885</v>
+        <v>228.1508884213399</v>
       </c>
       <c r="AD7" t="n">
-        <v>163909.8362138484</v>
+        <v>184340.3984126587</v>
       </c>
       <c r="AE7" t="n">
-        <v>224268.6690993079</v>
+        <v>252222.6656324975</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.02455334308139e-06</v>
+        <v>8.591426268408197e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.098611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>202864.7820835885</v>
+        <v>228150.8884213399</v>
       </c>
     </row>
     <row r="8">
@@ -35825,28 +35825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>159.0650771611552</v>
+        <v>179.4956393599654</v>
       </c>
       <c r="AB8" t="n">
-        <v>217.6398560277316</v>
+        <v>245.5938525609212</v>
       </c>
       <c r="AC8" t="n">
-        <v>196.8686136279638</v>
+        <v>222.1547199657151</v>
       </c>
       <c r="AD8" t="n">
-        <v>159065.0771611551</v>
+        <v>179495.6393599654</v>
       </c>
       <c r="AE8" t="n">
-        <v>217639.8560277316</v>
+        <v>245593.8525609212</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.116038260975604e-06</v>
+        <v>8.747855282708898e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.025</v>
       </c>
       <c r="AH8" t="n">
-        <v>196868.6136279638</v>
+        <v>222154.7199657151</v>
       </c>
     </row>
     <row r="9">
@@ -35931,28 +35931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>144.532978163111</v>
+        <v>175.1360167712141</v>
       </c>
       <c r="AB9" t="n">
-        <v>197.7563970676573</v>
+        <v>239.6288246020202</v>
       </c>
       <c r="AC9" t="n">
-        <v>178.8828040844226</v>
+        <v>216.7589859032404</v>
       </c>
       <c r="AD9" t="n">
-        <v>144532.978163111</v>
+        <v>175136.0167712141</v>
       </c>
       <c r="AE9" t="n">
-        <v>197756.3970676573</v>
+        <v>239628.8246020202</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.195068181944187e-06</v>
+        <v>8.882987640281464e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.963888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>178882.8040844226</v>
+        <v>216758.9859032404</v>
       </c>
     </row>
     <row r="10">
@@ -36037,28 +36037,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>141.213062689748</v>
+        <v>161.7288762345788</v>
       </c>
       <c r="AB10" t="n">
-        <v>193.2139422526704</v>
+        <v>221.2845834385092</v>
       </c>
       <c r="AC10" t="n">
-        <v>174.7738747816013</v>
+        <v>200.1654933700649</v>
       </c>
       <c r="AD10" t="n">
-        <v>141213.062689748</v>
+        <v>161728.8762345788</v>
       </c>
       <c r="AE10" t="n">
-        <v>193213.9422526704</v>
+        <v>221284.5834385092</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.248446740196888e-06</v>
+        <v>8.974259026259183e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.923611111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>174773.8747816013</v>
+        <v>200165.4933700649</v>
       </c>
     </row>
     <row r="11">
@@ -36143,28 +36143,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>139.0456866334026</v>
+        <v>159.5615001782334</v>
       </c>
       <c r="AB11" t="n">
-        <v>190.2484427144969</v>
+        <v>218.3190839003357</v>
       </c>
       <c r="AC11" t="n">
-        <v>172.0913983572454</v>
+        <v>197.483016945709</v>
       </c>
       <c r="AD11" t="n">
-        <v>139045.6866334026</v>
+        <v>159561.5001782335</v>
       </c>
       <c r="AE11" t="n">
-        <v>190248.442714497</v>
+        <v>218319.0839003357</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.273505007821074e-06</v>
+        <v>9.017105871343168e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.905555555555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>172091.3983572454</v>
+        <v>197483.016945709</v>
       </c>
     </row>
     <row r="12">
@@ -36249,28 +36249,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>136.2227783149977</v>
+        <v>156.7385918598285</v>
       </c>
       <c r="AB12" t="n">
-        <v>186.3860150153317</v>
+        <v>214.4566562011705</v>
       </c>
       <c r="AC12" t="n">
-        <v>168.5975953367359</v>
+        <v>193.9892139251995</v>
       </c>
       <c r="AD12" t="n">
-        <v>136222.7783149977</v>
+        <v>156738.5918598285</v>
       </c>
       <c r="AE12" t="n">
-        <v>186386.0150153317</v>
+        <v>214456.6562011705</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.309535534641647e-06</v>
+        <v>9.078714056878129e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.879166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>168597.5953367359</v>
+        <v>193989.2139251995</v>
       </c>
     </row>
     <row r="13">
@@ -36355,28 +36355,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>133.3566342726345</v>
+        <v>153.8724478174654</v>
       </c>
       <c r="AB13" t="n">
-        <v>182.4644302912213</v>
+        <v>210.5350714770601</v>
       </c>
       <c r="AC13" t="n">
-        <v>165.0502811547146</v>
+        <v>190.4418997431783</v>
       </c>
       <c r="AD13" t="n">
-        <v>133356.6342726345</v>
+        <v>153872.4478174654</v>
       </c>
       <c r="AE13" t="n">
-        <v>182464.4302912213</v>
+        <v>210535.0714770601</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.343490228641282e-06</v>
+        <v>9.136772799625066e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.854166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>165050.2811547146</v>
+        <v>190441.8997431782</v>
       </c>
     </row>
     <row r="14">
@@ -36461,28 +36461,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>131.337986878439</v>
+        <v>151.8538004232698</v>
       </c>
       <c r="AB14" t="n">
-        <v>179.7024278700466</v>
+        <v>207.7730690558854</v>
       </c>
       <c r="AC14" t="n">
-        <v>162.5518803681213</v>
+        <v>187.9434989565848</v>
       </c>
       <c r="AD14" t="n">
-        <v>131337.986878439</v>
+        <v>151853.8004232698</v>
       </c>
       <c r="AE14" t="n">
-        <v>179702.4278700466</v>
+        <v>207773.0690558854</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.362765819121424e-06</v>
+        <v>9.16973191122813e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.840277777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>162551.8803681213</v>
+        <v>187943.4989565848</v>
       </c>
     </row>
     <row r="15">
@@ -36567,28 +36567,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>131.1673624735902</v>
+        <v>151.6831760184211</v>
       </c>
       <c r="AB15" t="n">
-        <v>179.4689720319152</v>
+        <v>207.539613217754</v>
       </c>
       <c r="AC15" t="n">
-        <v>162.3407052275237</v>
+        <v>187.7323238159873</v>
       </c>
       <c r="AD15" t="n">
-        <v>131167.3624735902</v>
+        <v>151683.1760184211</v>
       </c>
       <c r="AE15" t="n">
-        <v>179468.9720319152</v>
+        <v>207539.613217754</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.378927660370159e-06</v>
+        <v>9.19736685864916e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.829166666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>162340.7052275237</v>
+        <v>187732.3238159873</v>
       </c>
     </row>
   </sheetData>
@@ -36864,28 +36864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.40357197282425</v>
+        <v>99.76476976089016</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.1164466790811</v>
+        <v>136.5025592978056</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.2253331714978</v>
+        <v>123.4749466210048</v>
       </c>
       <c r="AD2" t="n">
-        <v>83403.57197282425</v>
+        <v>99764.76976089017</v>
       </c>
       <c r="AE2" t="n">
-        <v>114116.4466790811</v>
+        <v>136502.5592978056</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.841629139371958e-06</v>
+        <v>1.252130184433485e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.529166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>103225.3331714978</v>
+        <v>123474.9466210048</v>
       </c>
     </row>
   </sheetData>
@@ -37161,28 +37161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.9412049397171</v>
+        <v>239.0759368649549</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.6190626675598</v>
+        <v>327.1142441044228</v>
       </c>
       <c r="AC2" t="n">
-        <v>261.0736644060516</v>
+        <v>295.894919754919</v>
       </c>
       <c r="AD2" t="n">
-        <v>210941.2049397171</v>
+        <v>239075.9368649549</v>
       </c>
       <c r="AE2" t="n">
-        <v>288619.0626675598</v>
+        <v>327114.2441044228</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.972592888362151e-06</v>
+        <v>7.319234386241306e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.709722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>261073.6644060516</v>
+        <v>295894.919754919</v>
       </c>
     </row>
     <row r="3">
@@ -37267,28 +37267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.6083794724967</v>
+        <v>159.2796160766347</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.3865879980868</v>
+        <v>217.9333976366796</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.0254820558759</v>
+        <v>197.134140037742</v>
       </c>
       <c r="AD3" t="n">
-        <v>140608.3794724967</v>
+        <v>159279.6160766347</v>
       </c>
       <c r="AE3" t="n">
-        <v>192386.5879980868</v>
+        <v>217933.3976366796</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.157659135365239e-06</v>
+        <v>9.502638995973422e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.397222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>174025.4820558759</v>
+        <v>197134.140037742</v>
       </c>
     </row>
     <row r="4">
@@ -37373,28 +37373,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.1754966814546</v>
+        <v>143.8467332855925</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.2706369126569</v>
+        <v>196.8174465512496</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.9248077056092</v>
+        <v>178.0334656874753</v>
       </c>
       <c r="AD4" t="n">
-        <v>125175.4966814546</v>
+        <v>143846.7332855925</v>
       </c>
       <c r="AE4" t="n">
-        <v>171270.6369126569</v>
+        <v>196817.4465512496</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.587464063312343e-06</v>
+        <v>1.029452557897121e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.059722222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>154924.8077056092</v>
+        <v>178033.4656874753</v>
       </c>
     </row>
     <row r="5">
@@ -37479,28 +37479,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.243482806519</v>
+        <v>126.9999707566776</v>
       </c>
       <c r="AB5" t="n">
-        <v>148.1035085412493</v>
+        <v>173.7669628324912</v>
       </c>
       <c r="AC5" t="n">
-        <v>133.9687175506925</v>
+        <v>157.1828877832707</v>
       </c>
       <c r="AD5" t="n">
-        <v>108243.482806519</v>
+        <v>126999.9707566776</v>
       </c>
       <c r="AE5" t="n">
-        <v>148103.5085412493</v>
+        <v>173766.9628324912</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.771829475034333e-06</v>
+        <v>1.063420641187565e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.929166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>133968.7175506925</v>
+        <v>157182.8877832707</v>
       </c>
     </row>
     <row r="6">
@@ -37585,28 +37585,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>104.5014585223847</v>
+        <v>123.2579464725433</v>
       </c>
       <c r="AB6" t="n">
-        <v>142.9835058292391</v>
+        <v>168.6469601204811</v>
       </c>
       <c r="AC6" t="n">
-        <v>129.337360711546</v>
+        <v>152.5515309441243</v>
       </c>
       <c r="AD6" t="n">
-        <v>104501.4585223847</v>
+        <v>123257.9464725433</v>
       </c>
       <c r="AE6" t="n">
-        <v>142983.5058292391</v>
+        <v>168646.9601204811</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.856908642002586e-06</v>
+        <v>1.079095903715751e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.872222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>129337.360711546</v>
+        <v>152551.5309441243</v>
       </c>
     </row>
     <row r="7">
@@ -37691,28 +37691,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>104.5545345896101</v>
+        <v>123.3110225397686</v>
       </c>
       <c r="AB7" t="n">
-        <v>143.0561268459677</v>
+        <v>168.7195811372096</v>
       </c>
       <c r="AC7" t="n">
-        <v>129.4030508803622</v>
+        <v>152.6172211129405</v>
       </c>
       <c r="AD7" t="n">
-        <v>104554.5345896101</v>
+        <v>123311.0225397686</v>
       </c>
       <c r="AE7" t="n">
-        <v>143056.1268459677</v>
+        <v>168719.5811372096</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.874218414936626e-06</v>
+        <v>1.082285112598645e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.861111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>129403.0508803622</v>
+        <v>152617.2211129405</v>
       </c>
     </row>
   </sheetData>
@@ -37988,28 +37988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.440631157803</v>
+        <v>324.6672647350817</v>
       </c>
       <c r="AB2" t="n">
-        <v>404.2349054708658</v>
+        <v>444.2240749193716</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.6552934399787</v>
+        <v>401.8279526814709</v>
       </c>
       <c r="AD2" t="n">
-        <v>295440.6311578029</v>
+        <v>324667.2647350818</v>
       </c>
       <c r="AE2" t="n">
-        <v>404234.9054708658</v>
+        <v>444224.0749193716</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.312838494536412e-06</v>
+        <v>5.918144205232148e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.591666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>365655.2934399787</v>
+        <v>401827.9526814709</v>
       </c>
     </row>
     <row r="3">
@@ -38094,28 +38094,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.0328561999011</v>
+        <v>198.0888080680362</v>
       </c>
       <c r="AB3" t="n">
-        <v>231.2782110559124</v>
+        <v>271.0338462600023</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.2053431938108</v>
+        <v>245.1667563714194</v>
       </c>
       <c r="AD3" t="n">
-        <v>169032.8561999011</v>
+        <v>198088.8080680362</v>
       </c>
       <c r="AE3" t="n">
-        <v>231278.2110559124</v>
+        <v>271033.8462600023</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.67265720932192e-06</v>
+        <v>8.34736110196476e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.673611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>209205.3431938108</v>
+        <v>245166.7563714194</v>
       </c>
     </row>
     <row r="4">
@@ -38200,28 +38200,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.1917047980238</v>
+        <v>167.5339819338077</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.7624282611696</v>
+        <v>229.2273851593788</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.4110666868366</v>
+        <v>207.3502452424894</v>
       </c>
       <c r="AD4" t="n">
-        <v>148191.7047980238</v>
+        <v>167533.9819338077</v>
       </c>
       <c r="AE4" t="n">
-        <v>202762.4282611696</v>
+        <v>229227.3851593788</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.145897391019732e-06</v>
+        <v>9.192770150313143e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.243055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>183411.0666868367</v>
+        <v>207350.2452424894</v>
       </c>
     </row>
     <row r="5">
@@ -38306,28 +38306,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>136.6692599257031</v>
+        <v>156.011537061487</v>
       </c>
       <c r="AB5" t="n">
-        <v>186.996910852477</v>
+        <v>213.4618677506862</v>
       </c>
       <c r="AC5" t="n">
-        <v>169.150188132582</v>
+        <v>193.0893666882347</v>
       </c>
       <c r="AD5" t="n">
-        <v>136669.2599257031</v>
+        <v>156011.537061487</v>
       </c>
       <c r="AE5" t="n">
-        <v>186996.910852477</v>
+        <v>213461.8677506862</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.434400956938498e-06</v>
+        <v>9.708160716332838e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.018055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>169150.188132582</v>
+        <v>193089.3666882347</v>
       </c>
     </row>
     <row r="6">
@@ -38412,28 +38412,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>122.9407692871193</v>
+        <v>142.3682977689238</v>
       </c>
       <c r="AB6" t="n">
-        <v>168.2129843025143</v>
+        <v>194.7945858533727</v>
       </c>
       <c r="AC6" t="n">
-        <v>152.1589731691353</v>
+        <v>176.2036639755002</v>
       </c>
       <c r="AD6" t="n">
-        <v>122940.7692871193</v>
+        <v>142368.2977689238</v>
       </c>
       <c r="AE6" t="n">
-        <v>168212.9843025143</v>
+        <v>194794.5858533727</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.514741731970917e-06</v>
+        <v>9.851683647796632e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.959722222222223</v>
       </c>
       <c r="AH6" t="n">
-        <v>152158.9731691353</v>
+        <v>176203.6639755002</v>
       </c>
     </row>
     <row r="7">
@@ -38518,28 +38518,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.6161970243998</v>
+        <v>137.0437255062043</v>
       </c>
       <c r="AB7" t="n">
-        <v>160.9276696291156</v>
+        <v>187.509271179974</v>
       </c>
       <c r="AC7" t="n">
-        <v>145.5689587031601</v>
+        <v>169.613649509525</v>
       </c>
       <c r="AD7" t="n">
-        <v>117616.1970243998</v>
+        <v>137043.7255062043</v>
       </c>
       <c r="AE7" t="n">
-        <v>160927.6696291156</v>
+        <v>187509.271179974</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.613792002558832e-06</v>
+        <v>1.00286297276835e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.890277777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>145568.9587031601</v>
+        <v>169613.649509525</v>
       </c>
     </row>
     <row r="8">
@@ -38624,28 +38624,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>113.0378650696601</v>
+        <v>132.4653935514646</v>
       </c>
       <c r="AB8" t="n">
-        <v>154.6633938668932</v>
+        <v>181.2449954177516</v>
       </c>
       <c r="AC8" t="n">
-        <v>139.902536627716</v>
+        <v>163.9472274340809</v>
       </c>
       <c r="AD8" t="n">
-        <v>113037.8650696601</v>
+        <v>132465.3935514646</v>
       </c>
       <c r="AE8" t="n">
-        <v>154663.3938668933</v>
+        <v>181244.9954177516</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.712370605191566e-06</v>
+        <v>1.020473320718996e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.822222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>139902.5366277159</v>
+        <v>163947.2274340809</v>
       </c>
     </row>
     <row r="9">
@@ -38730,28 +38730,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>113.5244139962166</v>
+        <v>132.9519424780211</v>
       </c>
       <c r="AB9" t="n">
-        <v>155.3291115732312</v>
+        <v>181.9107131240896</v>
       </c>
       <c r="AC9" t="n">
-        <v>140.5047191705019</v>
+        <v>164.5494099768669</v>
       </c>
       <c r="AD9" t="n">
-        <v>113524.4139962166</v>
+        <v>132951.9424780211</v>
       </c>
       <c r="AE9" t="n">
-        <v>155329.1115732312</v>
+        <v>181910.7131240896</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.692560551073982e-06</v>
+        <v>1.016934399121259e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.836111111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>140504.7191705019</v>
+        <v>164549.4099768669</v>
       </c>
     </row>
   </sheetData>
